--- a/data/_Normalized Data Structure v2.xlsx
+++ b/data/_Normalized Data Structure v2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\peter\PythonProjects\PandasTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E00D6-20DB-4072-A88B-7041C1D85F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323C9736-4B1E-4926-A1D0-5F5EAA38737F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CC4E5F4-7903-495A-89A9-05CC51652D38}"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 05 Sun_normalized" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalized Data Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Bill Lookup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Week 05 Sun_normalized'!$A$1:$S$574</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Normalized Data Structure'!$A$1:$S$574</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="780">
   <si>
     <t>Key ID</t>
   </si>
@@ -2249,18 +2250,12 @@
     <t>Comment to Representatives</t>
   </si>
   <si>
-    <t>Email House</t>
-  </si>
-  <si>
     <t>Email Committee</t>
   </si>
   <si>
     <t>Con</t>
   </si>
   <si>
-    <t>Email legislators</t>
-  </si>
-  <si>
     <t>Contact Position</t>
   </si>
   <si>
@@ -2349,6 +2344,39 @@
   </si>
   <si>
     <t>SB 5947</t>
+  </si>
+  <si>
+    <t>HB 1282</t>
+  </si>
+  <si>
+    <t>HB 2276</t>
+  </si>
+  <si>
+    <t>SB 6191</t>
+  </si>
+  <si>
+    <t>HB 2049</t>
+  </si>
+  <si>
+    <t>HB 2144</t>
+  </si>
+  <si>
+    <t>Email full House</t>
+  </si>
+  <si>
+    <t>Bill Key</t>
+  </si>
+  <si>
+    <t>Bill Num</t>
+  </si>
+  <si>
+    <t>Bill Alias</t>
+  </si>
+  <si>
+    <t>SB 5955_05Sun_1</t>
+  </si>
+  <si>
+    <t>Email Specific Legislators</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2870,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3218,10 +3248,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56578F5E-9E9C-418F-9B62-D825A2C80324}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="H385" sqref="H385"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N261" sqref="N261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3231,22 +3262,23 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="36.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="36.75" customWidth="1"/>
     <col min="8" max="8" width="63.625" customWidth="1"/>
-    <col min="9" max="9" width="33" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="45.375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="19.25" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="26.875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0.125" customWidth="1"/>
-    <col min="17" max="17" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
+    <col min="12" max="12" width="45.375" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="26.875" customWidth="1"/>
+    <col min="15" max="15" width="18.25" customWidth="1"/>
+    <col min="16" max="16" width="14.875" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
     <col min="18" max="18" width="16.75" customWidth="1"/>
     <col min="19" max="19" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3290,7 +3322,7 @@
         <v>733</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>734</v>
@@ -3305,7 +3337,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" hidden="1">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3331,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" hidden="1">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3357,7 +3389,7 @@
         <v>45326.912499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" hidden="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3395,7 +3427,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" hidden="1">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3433,7 +3465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +3485,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
@@ -3474,7 +3506,7 @@
         <v>735</v>
       </c>
       <c r="O6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -3483,7 +3515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" hidden="1">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3521,7 +3553,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" hidden="1">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -3559,7 +3591,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -3597,7 +3629,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3617,7 +3649,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -3635,7 +3667,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3673,7 +3705,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -3711,7 +3743,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" hidden="1">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -3749,7 +3781,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3769,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -3787,7 +3819,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3825,7 +3857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -3863,7 +3895,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3901,7 +3933,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -3921,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3939,7 +3971,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -3977,7 +4009,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -4015,7 +4047,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -4038,7 +4070,7 @@
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -4056,7 +4088,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4076,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -4094,7 +4126,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4132,7 +4164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4170,7 +4202,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -4208,7 +4240,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -4228,7 +4260,7 @@
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J26">
         <v>6</v>
@@ -4246,7 +4278,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -4284,7 +4316,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -4322,7 +4354,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4360,7 +4392,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4380,7 +4412,7 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J30">
         <v>7</v>
@@ -4398,7 +4430,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4436,7 +4468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -4474,7 +4506,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -4512,7 +4544,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -4532,7 +4564,7 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J34">
         <v>8</v>
@@ -4550,7 +4582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4588,7 +4620,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -4617,7 +4649,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -4643,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -4669,7 +4701,7 @@
         <v>45327.213194444441</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -4707,7 +4739,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4745,7 +4777,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -4765,7 +4797,7 @@
         <v>81</v>
       </c>
       <c r="H41" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -4783,7 +4815,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -4821,7 +4853,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -4862,7 +4894,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -4900,7 +4932,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -4920,7 +4952,7 @@
         <v>81</v>
       </c>
       <c r="H45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4938,7 +4970,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -4976,7 +5008,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -5014,7 +5046,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5052,7 +5084,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -5072,7 +5104,7 @@
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J49">
         <v>3</v>
@@ -5090,7 +5122,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -5128,7 +5160,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -5166,7 +5198,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -5204,7 +5236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -5224,7 +5256,7 @@
         <v>81</v>
       </c>
       <c r="H53" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -5242,7 +5274,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -5280,7 +5312,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -5318,7 +5350,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
         <v>100</v>
       </c>
@@ -5356,7 +5388,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" t="s">
         <v>101</v>
       </c>
@@ -5376,7 +5408,7 @@
         <v>81</v>
       </c>
       <c r="H57" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J57">
         <v>5</v>
@@ -5394,7 +5426,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" hidden="1">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -5432,7 +5464,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" hidden="1">
       <c r="A59" t="s">
         <v>103</v>
       </c>
@@ -5470,7 +5502,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1">
       <c r="A60" t="s">
         <v>104</v>
       </c>
@@ -5508,7 +5540,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>105</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J61">
         <v>6</v>
@@ -5546,7 +5578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" t="s">
         <v>106</v>
       </c>
@@ -5584,7 +5616,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>107</v>
       </c>
@@ -5622,7 +5654,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" t="s">
         <v>108</v>
       </c>
@@ -5660,7 +5692,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -5680,7 +5712,7 @@
         <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J65">
         <v>7</v>
@@ -5698,7 +5730,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -5736,7 +5768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" t="s">
         <v>111</v>
       </c>
@@ -5774,7 +5806,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" hidden="1">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -5812,7 +5844,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1">
       <c r="A69" t="s">
         <v>113</v>
       </c>
@@ -5832,7 +5864,7 @@
         <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J69">
         <v>8</v>
@@ -5850,7 +5882,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -5888,7 +5920,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" t="s">
         <v>115</v>
       </c>
@@ -5917,7 +5949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -5943,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1">
       <c r="A73" t="s">
         <v>120</v>
       </c>
@@ -5969,7 +6001,7 @@
         <v>45326.918749999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" hidden="1">
       <c r="A74" t="s">
         <v>121</v>
       </c>
@@ -6007,7 +6039,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1">
       <c r="A75" t="s">
         <v>122</v>
       </c>
@@ -6030,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="I75" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J75">
         <v>1</v>
@@ -6048,7 +6080,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1">
       <c r="A76" t="s">
         <v>123</v>
       </c>
@@ -6068,7 +6100,7 @@
         <v>119</v>
       </c>
       <c r="H76" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -6086,7 +6118,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -6124,7 +6156,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -6162,7 +6194,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -6200,7 +6232,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" hidden="1">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -6220,7 +6252,7 @@
         <v>119</v>
       </c>
       <c r="H80" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -6238,7 +6270,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -6276,7 +6308,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -6314,7 +6346,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" hidden="1">
       <c r="A83" t="s">
         <v>130</v>
       </c>
@@ -6352,7 +6384,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1">
       <c r="A84" t="s">
         <v>131</v>
       </c>
@@ -6372,7 +6404,7 @@
         <v>119</v>
       </c>
       <c r="H84" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -6390,7 +6422,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -6428,7 +6460,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" hidden="1">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -6466,7 +6498,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -6504,7 +6536,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -6524,7 +6556,7 @@
         <v>119</v>
       </c>
       <c r="H88" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J88">
         <v>4</v>
@@ -6542,7 +6574,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" hidden="1">
       <c r="A89" t="s">
         <v>136</v>
       </c>
@@ -6580,7 +6612,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1">
       <c r="A90" t="s">
         <v>137</v>
       </c>
@@ -6618,7 +6650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1">
       <c r="A91" t="s">
         <v>138</v>
       </c>
@@ -6656,7 +6688,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" hidden="1">
       <c r="A92" t="s">
         <v>139</v>
       </c>
@@ -6676,7 +6708,7 @@
         <v>119</v>
       </c>
       <c r="H92" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -6694,7 +6726,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" hidden="1">
       <c r="A93" t="s">
         <v>140</v>
       </c>
@@ -6732,7 +6764,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1">
       <c r="A94" t="s">
         <v>141</v>
       </c>
@@ -6770,7 +6802,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" hidden="1">
       <c r="A95" t="s">
         <v>142</v>
       </c>
@@ -6808,7 +6840,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1">
       <c r="A96" t="s">
         <v>143</v>
       </c>
@@ -6828,7 +6860,7 @@
         <v>119</v>
       </c>
       <c r="H96" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J96">
         <v>6</v>
@@ -6846,7 +6878,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" hidden="1">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -6884,7 +6916,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" hidden="1">
       <c r="A98" t="s">
         <v>145</v>
       </c>
@@ -6922,7 +6954,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" hidden="1">
       <c r="A99" t="s">
         <v>146</v>
       </c>
@@ -6960,7 +6992,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" hidden="1">
       <c r="A100" t="s">
         <v>147</v>
       </c>
@@ -6980,7 +7012,7 @@
         <v>119</v>
       </c>
       <c r="H100" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J100">
         <v>7</v>
@@ -6998,7 +7030,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" hidden="1">
       <c r="A101" t="s">
         <v>148</v>
       </c>
@@ -7036,7 +7068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" hidden="1">
       <c r="A102" t="s">
         <v>149</v>
       </c>
@@ -7074,7 +7106,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" hidden="1">
       <c r="A103" t="s">
         <v>150</v>
       </c>
@@ -7112,7 +7144,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" hidden="1">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -7132,7 +7164,7 @@
         <v>119</v>
       </c>
       <c r="H104" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J104">
         <v>8</v>
@@ -7150,7 +7182,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" hidden="1">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -7188,7 +7220,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" hidden="1">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -7217,7 +7249,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" hidden="1">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -7243,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" hidden="1">
       <c r="A108" t="s">
         <v>158</v>
       </c>
@@ -7269,7 +7301,7 @@
         <v>45329.250694444447</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" hidden="1">
       <c r="A109" t="s">
         <v>159</v>
       </c>
@@ -7307,7 +7339,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" hidden="1">
       <c r="A110" t="s">
         <v>160</v>
       </c>
@@ -7345,7 +7377,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" hidden="1">
       <c r="A111" t="s">
         <v>161</v>
       </c>
@@ -7365,7 +7397,7 @@
         <v>157</v>
       </c>
       <c r="H111" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -7383,7 +7415,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" hidden="1">
       <c r="A112" t="s">
         <v>162</v>
       </c>
@@ -7421,7 +7453,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" hidden="1">
       <c r="A113" t="s">
         <v>163</v>
       </c>
@@ -7459,7 +7491,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" hidden="1">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -7497,7 +7529,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" hidden="1">
       <c r="A115" t="s">
         <v>165</v>
       </c>
@@ -7517,7 +7549,7 @@
         <v>157</v>
       </c>
       <c r="H115" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J115">
         <v>2</v>
@@ -7535,7 +7567,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" hidden="1">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -7573,7 +7605,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" hidden="1">
       <c r="A117" t="s">
         <v>167</v>
       </c>
@@ -7614,7 +7646,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" hidden="1">
       <c r="A118" t="s">
         <v>168</v>
       </c>
@@ -7652,7 +7684,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" hidden="1">
       <c r="A119" t="s">
         <v>169</v>
       </c>
@@ -7672,7 +7704,7 @@
         <v>157</v>
       </c>
       <c r="H119" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J119">
         <v>3</v>
@@ -7690,7 +7722,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1">
       <c r="A120" t="s">
         <v>170</v>
       </c>
@@ -7728,7 +7760,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" hidden="1">
       <c r="A121" t="s">
         <v>171</v>
       </c>
@@ -7766,7 +7798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" hidden="1">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -7804,7 +7836,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" hidden="1">
       <c r="A123" t="s">
         <v>173</v>
       </c>
@@ -7824,7 +7856,7 @@
         <v>157</v>
       </c>
       <c r="H123" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J123">
         <v>4</v>
@@ -7842,7 +7874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" hidden="1">
       <c r="A124" t="s">
         <v>174</v>
       </c>
@@ -7880,7 +7912,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" hidden="1">
       <c r="A125" t="s">
         <v>175</v>
       </c>
@@ -7918,7 +7950,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" hidden="1">
       <c r="A126" t="s">
         <v>176</v>
       </c>
@@ -7956,7 +7988,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" hidden="1">
       <c r="A127" t="s">
         <v>177</v>
       </c>
@@ -7976,7 +8008,7 @@
         <v>157</v>
       </c>
       <c r="H127" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J127">
         <v>5</v>
@@ -7994,7 +8026,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" hidden="1">
       <c r="A128" t="s">
         <v>178</v>
       </c>
@@ -8032,7 +8064,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" hidden="1">
       <c r="A129" t="s">
         <v>179</v>
       </c>
@@ -8070,7 +8102,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" hidden="1">
       <c r="A130" t="s">
         <v>180</v>
       </c>
@@ -8108,7 +8140,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" hidden="1">
       <c r="A131" t="s">
         <v>181</v>
       </c>
@@ -8128,7 +8160,7 @@
         <v>157</v>
       </c>
       <c r="H131" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J131">
         <v>6</v>
@@ -8146,7 +8178,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" hidden="1">
       <c r="A132" t="s">
         <v>182</v>
       </c>
@@ -8184,7 +8216,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" hidden="1">
       <c r="A133" t="s">
         <v>183</v>
       </c>
@@ -8222,7 +8254,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" hidden="1">
       <c r="A134" t="s">
         <v>184</v>
       </c>
@@ -8260,7 +8292,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" hidden="1">
       <c r="A135" t="s">
         <v>185</v>
       </c>
@@ -8280,7 +8312,7 @@
         <v>157</v>
       </c>
       <c r="H135" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J135">
         <v>7</v>
@@ -8298,7 +8330,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" hidden="1">
       <c r="A136" t="s">
         <v>186</v>
       </c>
@@ -8336,7 +8368,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" hidden="1">
       <c r="A137" t="s">
         <v>187</v>
       </c>
@@ -8374,7 +8406,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" hidden="1">
       <c r="A138" t="s">
         <v>188</v>
       </c>
@@ -8412,7 +8444,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" hidden="1">
       <c r="A139" t="s">
         <v>189</v>
       </c>
@@ -8432,7 +8464,7 @@
         <v>157</v>
       </c>
       <c r="H139" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J139">
         <v>8</v>
@@ -8450,7 +8482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" hidden="1">
       <c r="A140" t="s">
         <v>190</v>
       </c>
@@ -8488,7 +8520,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" hidden="1">
       <c r="A141" t="s">
         <v>191</v>
       </c>
@@ -8517,7 +8549,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" hidden="1">
       <c r="A142" t="s">
         <v>192</v>
       </c>
@@ -8546,7 +8578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" hidden="1">
       <c r="A143" t="s">
         <v>198</v>
       </c>
@@ -8575,7 +8607,7 @@
         <v>45328.140277777777</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" hidden="1">
       <c r="A144" t="s">
         <v>199</v>
       </c>
@@ -8616,7 +8648,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -8657,7 +8689,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" hidden="1">
       <c r="A146" t="s">
         <v>201</v>
       </c>
@@ -8680,7 +8712,7 @@
         <v>197</v>
       </c>
       <c r="H146" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I146" t="s">
         <v>25</v>
@@ -8701,7 +8733,7 @@
         <v>735</v>
       </c>
       <c r="O146" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -8710,7 +8742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -8751,7 +8783,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -8792,7 +8824,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" hidden="1">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -8833,7 +8865,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" t="s">
         <v>205</v>
       </c>
@@ -8856,10 +8888,10 @@
         <v>197</v>
       </c>
       <c r="H150" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I150" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J150">
         <v>2</v>
@@ -8877,7 +8909,7 @@
         <v>736</v>
       </c>
       <c r="O150" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P150">
         <v>2</v>
@@ -8886,7 +8918,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" t="s">
         <v>206</v>
       </c>
@@ -8927,7 +8959,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" t="s">
         <v>207</v>
       </c>
@@ -8968,7 +9000,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" t="s">
         <v>208</v>
       </c>
@@ -9009,7 +9041,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" t="s">
         <v>209</v>
       </c>
@@ -9032,10 +9064,10 @@
         <v>197</v>
       </c>
       <c r="H154" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I154" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J154">
         <v>3</v>
@@ -9053,7 +9085,7 @@
         <v>736</v>
       </c>
       <c r="O154" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P154">
         <v>2</v>
@@ -9062,7 +9094,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" hidden="1">
       <c r="A155" t="s">
         <v>210</v>
       </c>
@@ -9103,7 +9135,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -9147,7 +9179,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1">
       <c r="A157" t="s">
         <v>212</v>
       </c>
@@ -9188,7 +9220,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" hidden="1">
       <c r="A158" t="s">
         <v>213</v>
       </c>
@@ -9211,7 +9243,7 @@
         <v>197</v>
       </c>
       <c r="H158" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I158" t="s">
         <v>214</v>
@@ -9229,10 +9261,10 @@
         <v>254</v>
       </c>
       <c r="N158" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="O158" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P158">
         <v>58</v>
@@ -9241,7 +9273,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1">
       <c r="A159" t="s">
         <v>215</v>
       </c>
@@ -9282,7 +9314,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" t="s">
         <v>216</v>
       </c>
@@ -9326,7 +9358,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" hidden="1">
       <c r="A161" t="s">
         <v>217</v>
       </c>
@@ -9367,7 +9399,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" hidden="1">
       <c r="A162" t="s">
         <v>218</v>
       </c>
@@ -9390,10 +9422,10 @@
         <v>197</v>
       </c>
       <c r="H162" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I162" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -9411,7 +9443,7 @@
         <v>736</v>
       </c>
       <c r="O162" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P162">
         <v>2</v>
@@ -9420,7 +9452,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" hidden="1">
       <c r="A163" t="s">
         <v>219</v>
       </c>
@@ -9461,7 +9493,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" hidden="1">
       <c r="A164" t="s">
         <v>220</v>
       </c>
@@ -9505,7 +9537,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" hidden="1">
       <c r="A165" t="s">
         <v>221</v>
       </c>
@@ -9546,7 +9578,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" hidden="1">
       <c r="A166" t="s">
         <v>222</v>
       </c>
@@ -9584,10 +9616,10 @@
         <v>732</v>
       </c>
       <c r="N166" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O166" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -9596,7 +9628,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" hidden="1">
       <c r="A167" t="s">
         <v>223</v>
       </c>
@@ -9637,7 +9669,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" hidden="1">
       <c r="A168" t="s">
         <v>224</v>
       </c>
@@ -9681,7 +9713,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" hidden="1">
       <c r="A169" t="s">
         <v>225</v>
       </c>
@@ -9722,7 +9754,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" hidden="1">
       <c r="A170" t="s">
         <v>226</v>
       </c>
@@ -9745,7 +9777,7 @@
         <v>197</v>
       </c>
       <c r="H170" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I170" t="s">
         <v>214</v>
@@ -9763,10 +9795,10 @@
         <v>254</v>
       </c>
       <c r="N170" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O170" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P170">
         <v>24</v>
@@ -9775,7 +9807,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" hidden="1">
       <c r="A171" t="s">
         <v>227</v>
       </c>
@@ -9816,7 +9848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" hidden="1">
       <c r="A172" t="s">
         <v>228</v>
       </c>
@@ -9860,7 +9892,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" hidden="1">
       <c r="A173" t="s">
         <v>229</v>
       </c>
@@ -9901,7 +9933,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" hidden="1">
       <c r="A174" t="s">
         <v>230</v>
       </c>
@@ -9924,7 +9956,7 @@
         <v>197</v>
       </c>
       <c r="H174" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I174" t="s">
         <v>214</v>
@@ -9942,10 +9974,10 @@
         <v>254</v>
       </c>
       <c r="N174" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O174" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P174">
         <v>24</v>
@@ -9954,7 +9986,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" hidden="1">
       <c r="A175" t="s">
         <v>231</v>
       </c>
@@ -9995,7 +10027,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" hidden="1">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -10027,7 +10059,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" hidden="1">
       <c r="A177" t="s">
         <v>289</v>
       </c>
@@ -10056,7 +10088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" hidden="1">
       <c r="A178" t="s">
         <v>291</v>
       </c>
@@ -10085,7 +10117,7 @@
         <v>45340.992743055554</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" hidden="1">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -10123,10 +10155,10 @@
         <v>254</v>
       </c>
       <c r="Q179" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" hidden="1">
       <c r="A180" t="s">
         <v>293</v>
       </c>
@@ -10164,10 +10196,10 @@
         <v>254</v>
       </c>
       <c r="Q180" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" hidden="1">
       <c r="A181" t="s">
         <v>294</v>
       </c>
@@ -10214,10 +10246,10 @@
         <v>1</v>
       </c>
       <c r="Q181" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" hidden="1">
       <c r="A182" t="s">
         <v>295</v>
       </c>
@@ -10255,10 +10287,10 @@
         <v>254</v>
       </c>
       <c r="Q182" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" hidden="1">
       <c r="A183" t="s">
         <v>296</v>
       </c>
@@ -10299,10 +10331,10 @@
         <v>254</v>
       </c>
       <c r="Q183" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" hidden="1">
       <c r="A184" t="s">
         <v>297</v>
       </c>
@@ -10340,10 +10372,10 @@
         <v>254</v>
       </c>
       <c r="Q184" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" hidden="1">
       <c r="A185" t="s">
         <v>298</v>
       </c>
@@ -10390,10 +10422,10 @@
         <v>1</v>
       </c>
       <c r="Q185" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" hidden="1">
       <c r="A186" t="s">
         <v>299</v>
       </c>
@@ -10431,10 +10463,10 @@
         <v>254</v>
       </c>
       <c r="Q186" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" hidden="1">
       <c r="A187" t="s">
         <v>300</v>
       </c>
@@ -10475,10 +10507,10 @@
         <v>254</v>
       </c>
       <c r="Q187" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="188" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" hidden="1">
       <c r="A188" t="s">
         <v>301</v>
       </c>
@@ -10516,10 +10548,10 @@
         <v>254</v>
       </c>
       <c r="Q188" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="189" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" hidden="1">
       <c r="A189" t="s">
         <v>302</v>
       </c>
@@ -10566,10 +10598,10 @@
         <v>1</v>
       </c>
       <c r="Q189" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" hidden="1">
       <c r="A190" t="s">
         <v>303</v>
       </c>
@@ -10607,10 +10639,10 @@
         <v>254</v>
       </c>
       <c r="Q190" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" hidden="1">
       <c r="A191" t="s">
         <v>304</v>
       </c>
@@ -10651,10 +10683,10 @@
         <v>254</v>
       </c>
       <c r="Q191" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" hidden="1">
       <c r="A192" t="s">
         <v>305</v>
       </c>
@@ -10692,7 +10724,7 @@
         <v>254</v>
       </c>
       <c r="Q192" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="193" spans="1:17">
@@ -10718,7 +10750,7 @@
         <v>240</v>
       </c>
       <c r="H193" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I193" t="s">
         <v>214</v>
@@ -10736,19 +10768,19 @@
         <v>254</v>
       </c>
       <c r="N193" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O193" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P193">
         <v>6</v>
       </c>
       <c r="Q193" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" hidden="1">
       <c r="A194" t="s">
         <v>307</v>
       </c>
@@ -10786,10 +10818,10 @@
         <v>254</v>
       </c>
       <c r="Q194" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" hidden="1">
       <c r="A195" t="s">
         <v>308</v>
       </c>
@@ -10830,10 +10862,10 @@
         <v>254</v>
       </c>
       <c r="Q195" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" hidden="1">
       <c r="A196" t="s">
         <v>309</v>
       </c>
@@ -10877,16 +10909,16 @@
         <v>548</v>
       </c>
       <c r="O196" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P196">
         <v>1</v>
       </c>
       <c r="Q196" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" hidden="1">
       <c r="A197" t="s">
         <v>310</v>
       </c>
@@ -10924,10 +10956,10 @@
         <v>254</v>
       </c>
       <c r="Q197" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="198" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" hidden="1">
       <c r="A198" t="s">
         <v>311</v>
       </c>
@@ -10968,10 +11000,10 @@
         <v>254</v>
       </c>
       <c r="Q198" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="199" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" hidden="1">
       <c r="A199" t="s">
         <v>312</v>
       </c>
@@ -11009,7 +11041,7 @@
         <v>254</v>
       </c>
       <c r="Q199" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="200" spans="1:17">
@@ -11035,7 +11067,7 @@
         <v>240</v>
       </c>
       <c r="H200" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I200" t="s">
         <v>214</v>
@@ -11053,19 +11085,19 @@
         <v>254</v>
       </c>
       <c r="N200" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O200" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P200">
         <v>7</v>
       </c>
       <c r="Q200" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" hidden="1">
       <c r="A201" t="s">
         <v>314</v>
       </c>
@@ -11103,10 +11135,10 @@
         <v>254</v>
       </c>
       <c r="Q201" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="202" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" hidden="1">
       <c r="A202" t="s">
         <v>315</v>
       </c>
@@ -11150,7 +11182,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" hidden="1">
       <c r="A203" t="s">
         <v>316</v>
       </c>
@@ -11176,7 +11208,7 @@
         <v>52</v>
       </c>
       <c r="I203" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J203">
         <v>7</v>
@@ -11194,7 +11226,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" hidden="1">
       <c r="A204" t="s">
         <v>317</v>
       </c>
@@ -11244,7 +11276,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" hidden="1">
       <c r="A205" t="s">
         <v>318</v>
       </c>
@@ -11285,7 +11317,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" hidden="1">
       <c r="A206" t="s">
         <v>319</v>
       </c>
@@ -11323,10 +11355,10 @@
         <v>254</v>
       </c>
       <c r="Q206" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="207" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" hidden="1">
       <c r="A207" t="s">
         <v>320</v>
       </c>
@@ -11364,7 +11396,7 @@
         <v>254</v>
       </c>
       <c r="Q207" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="208" spans="1:17">
@@ -11390,7 +11422,7 @@
         <v>240</v>
       </c>
       <c r="H208" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I208" t="s">
         <v>214</v>
@@ -11408,19 +11440,19 @@
         <v>254</v>
       </c>
       <c r="N208" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O208" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P208">
         <v>17</v>
       </c>
       <c r="Q208" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="209" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" hidden="1">
       <c r="A209" t="s">
         <v>322</v>
       </c>
@@ -11458,10 +11490,10 @@
         <v>254</v>
       </c>
       <c r="Q209" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" hidden="1">
       <c r="A210" t="s">
         <v>323</v>
       </c>
@@ -11493,7 +11525,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" hidden="1">
       <c r="A211" t="s">
         <v>324</v>
       </c>
@@ -11522,7 +11554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" hidden="1">
       <c r="A212" t="s">
         <v>327</v>
       </c>
@@ -11551,7 +11583,7 @@
         <v>45340.965567129628</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" hidden="1">
       <c r="A213" t="s">
         <v>328</v>
       </c>
@@ -11589,10 +11621,10 @@
         <v>254</v>
       </c>
       <c r="Q213" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="214" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" hidden="1">
       <c r="A214" t="s">
         <v>329</v>
       </c>
@@ -11630,10 +11662,10 @@
         <v>254</v>
       </c>
       <c r="Q214" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="215" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" hidden="1">
       <c r="A215" t="s">
         <v>330</v>
       </c>
@@ -11680,10 +11712,10 @@
         <v>1</v>
       </c>
       <c r="Q215" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="216" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" hidden="1">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -11721,10 +11753,10 @@
         <v>254</v>
       </c>
       <c r="Q216" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="217" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" hidden="1">
       <c r="A217" t="s">
         <v>332</v>
       </c>
@@ -11762,10 +11794,10 @@
         <v>254</v>
       </c>
       <c r="Q217" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="218" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" hidden="1">
       <c r="A218" t="s">
         <v>333</v>
       </c>
@@ -11803,10 +11835,10 @@
         <v>254</v>
       </c>
       <c r="Q218" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" hidden="1">
       <c r="A219" t="s">
         <v>334</v>
       </c>
@@ -11853,10 +11885,10 @@
         <v>1</v>
       </c>
       <c r="Q219" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" hidden="1">
       <c r="A220" t="s">
         <v>335</v>
       </c>
@@ -11894,10 +11926,10 @@
         <v>254</v>
       </c>
       <c r="Q220" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="221" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" hidden="1">
       <c r="A221" t="s">
         <v>336</v>
       </c>
@@ -11935,10 +11967,10 @@
         <v>254</v>
       </c>
       <c r="Q221" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" hidden="1">
       <c r="A222" t="s">
         <v>337</v>
       </c>
@@ -11976,10 +12008,10 @@
         <v>254</v>
       </c>
       <c r="Q222" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="223" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" hidden="1">
       <c r="A223" t="s">
         <v>338</v>
       </c>
@@ -12026,10 +12058,10 @@
         <v>1</v>
       </c>
       <c r="Q223" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" hidden="1">
       <c r="A224" t="s">
         <v>339</v>
       </c>
@@ -12067,10 +12099,10 @@
         <v>254</v>
       </c>
       <c r="Q224" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="225" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" hidden="1">
       <c r="A225" t="s">
         <v>340</v>
       </c>
@@ -12108,10 +12140,10 @@
         <v>732</v>
       </c>
       <c r="Q225" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="226" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" hidden="1">
       <c r="A226" t="s">
         <v>341</v>
       </c>
@@ -12149,10 +12181,10 @@
         <v>732</v>
       </c>
       <c r="Q226" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="227" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" hidden="1">
       <c r="A227" t="s">
         <v>342</v>
       </c>
@@ -12175,7 +12207,7 @@
         <v>326</v>
       </c>
       <c r="H227" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J227">
         <v>4</v>
@@ -12190,10 +12222,10 @@
         <v>732</v>
       </c>
       <c r="Q227" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="228" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" hidden="1">
       <c r="A228" t="s">
         <v>343</v>
       </c>
@@ -12234,10 +12266,10 @@
         <v>7</v>
       </c>
       <c r="Q228" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="229" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" hidden="1">
       <c r="A229" t="s">
         <v>344</v>
       </c>
@@ -12278,10 +12310,10 @@
         <v>17</v>
       </c>
       <c r="Q229" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" hidden="1">
       <c r="A230" t="s">
         <v>345</v>
       </c>
@@ -12325,16 +12357,16 @@
         <v>548</v>
       </c>
       <c r="O230" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P230">
         <v>1</v>
       </c>
       <c r="Q230" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="231" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" hidden="1">
       <c r="A231" t="s">
         <v>346</v>
       </c>
@@ -12372,10 +12404,10 @@
         <v>254</v>
       </c>
       <c r="Q231" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="232" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" hidden="1">
       <c r="A232" t="s">
         <v>347</v>
       </c>
@@ -12413,10 +12445,10 @@
         <v>732</v>
       </c>
       <c r="Q232" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="233" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" hidden="1">
       <c r="A233" t="s">
         <v>348</v>
       </c>
@@ -12454,10 +12486,10 @@
         <v>732</v>
       </c>
       <c r="Q233" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="234" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" hidden="1">
       <c r="A234" t="s">
         <v>349</v>
       </c>
@@ -12480,7 +12512,7 @@
         <v>326</v>
       </c>
       <c r="H234" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J234">
         <v>6</v>
@@ -12495,10 +12527,10 @@
         <v>732</v>
       </c>
       <c r="Q234" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="235" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" hidden="1">
       <c r="A235" t="s">
         <v>350</v>
       </c>
@@ -12536,10 +12568,10 @@
         <v>732</v>
       </c>
       <c r="Q235" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="236" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" hidden="1">
       <c r="A236" t="s">
         <v>351</v>
       </c>
@@ -12580,7 +12612,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" hidden="1">
       <c r="A237" t="s">
         <v>352</v>
       </c>
@@ -12621,7 +12653,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" hidden="1">
       <c r="A238" t="s">
         <v>353</v>
       </c>
@@ -12671,7 +12703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" hidden="1">
       <c r="A239" t="s">
         <v>354</v>
       </c>
@@ -12712,7 +12744,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" hidden="1">
       <c r="A240" t="s">
         <v>355</v>
       </c>
@@ -12750,10 +12782,10 @@
         <v>732</v>
       </c>
       <c r="Q240" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="241" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" hidden="1">
       <c r="A241" t="s">
         <v>356</v>
       </c>
@@ -12779,7 +12811,7 @@
         <v>65</v>
       </c>
       <c r="I241" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J241">
         <v>8</v>
@@ -12794,10 +12826,10 @@
         <v>732</v>
       </c>
       <c r="Q241" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="242" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" hidden="1">
       <c r="A242" t="s">
         <v>357</v>
       </c>
@@ -12820,7 +12852,7 @@
         <v>326</v>
       </c>
       <c r="H242" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J242">
         <v>8</v>
@@ -12835,10 +12867,10 @@
         <v>732</v>
       </c>
       <c r="Q242" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="243" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" hidden="1">
       <c r="A243" t="s">
         <v>358</v>
       </c>
@@ -12876,10 +12908,10 @@
         <v>732</v>
       </c>
       <c r="Q243" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="244" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" hidden="1">
       <c r="A244" t="s">
         <v>359</v>
       </c>
@@ -12911,7 +12943,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" hidden="1">
       <c r="A245" t="s">
         <v>360</v>
       </c>
@@ -12940,7 +12972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" hidden="1">
       <c r="A246" t="s">
         <v>363</v>
       </c>
@@ -12969,7 +13001,7 @@
         <v>45341.176782407405</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" hidden="1">
       <c r="A247" t="s">
         <v>364</v>
       </c>
@@ -13007,10 +13039,10 @@
         <v>254</v>
       </c>
       <c r="Q247" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" hidden="1">
       <c r="A248" t="s">
         <v>365</v>
       </c>
@@ -13048,10 +13080,10 @@
         <v>254</v>
       </c>
       <c r="Q248" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="249" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" hidden="1">
       <c r="A249" t="s">
         <v>366</v>
       </c>
@@ -13098,10 +13130,10 @@
         <v>1</v>
       </c>
       <c r="Q249" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" hidden="1">
       <c r="A250" t="s">
         <v>367</v>
       </c>
@@ -13139,10 +13171,10 @@
         <v>254</v>
       </c>
       <c r="Q250" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="251" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" hidden="1">
       <c r="A251" t="s">
         <v>368</v>
       </c>
@@ -13180,10 +13212,10 @@
         <v>254</v>
       </c>
       <c r="Q251" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="252" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" hidden="1">
       <c r="A252" t="s">
         <v>369</v>
       </c>
@@ -13221,10 +13253,10 @@
         <v>254</v>
       </c>
       <c r="Q252" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="253" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" hidden="1">
       <c r="A253" t="s">
         <v>370</v>
       </c>
@@ -13271,10 +13303,10 @@
         <v>1</v>
       </c>
       <c r="Q253" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="254" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" hidden="1">
       <c r="A254" t="s">
         <v>371</v>
       </c>
@@ -13312,10 +13344,10 @@
         <v>254</v>
       </c>
       <c r="Q254" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="255" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" hidden="1">
       <c r="A255" t="s">
         <v>372</v>
       </c>
@@ -13353,10 +13385,10 @@
         <v>254</v>
       </c>
       <c r="Q255" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="256" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" hidden="1">
       <c r="A256" t="s">
         <v>373</v>
       </c>
@@ -13394,10 +13426,10 @@
         <v>254</v>
       </c>
       <c r="Q256" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" hidden="1">
       <c r="A257" t="s">
         <v>374</v>
       </c>
@@ -13444,10 +13476,10 @@
         <v>1</v>
       </c>
       <c r="Q257" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" hidden="1">
       <c r="A258" t="s">
         <v>375</v>
       </c>
@@ -13485,10 +13517,10 @@
         <v>254</v>
       </c>
       <c r="Q258" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="259" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" hidden="1">
       <c r="A259" t="s">
         <v>376</v>
       </c>
@@ -13526,10 +13558,10 @@
         <v>254</v>
       </c>
       <c r="Q259" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" hidden="1">
       <c r="A260" t="s">
         <v>377</v>
       </c>
@@ -13555,7 +13587,7 @@
         <v>45</v>
       </c>
       <c r="I260" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J260">
         <v>4</v>
@@ -13570,7 +13602,7 @@
         <v>254</v>
       </c>
       <c r="Q260" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="261" spans="1:17">
@@ -13596,7 +13628,7 @@
         <v>243</v>
       </c>
       <c r="H261" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I261" t="s">
         <v>214</v>
@@ -13614,19 +13646,19 @@
         <v>254</v>
       </c>
       <c r="N261" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O261" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P261">
         <v>6</v>
       </c>
       <c r="Q261" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" hidden="1">
       <c r="A262" t="s">
         <v>379</v>
       </c>
@@ -13664,10 +13696,10 @@
         <v>254</v>
       </c>
       <c r="Q262" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" hidden="1">
       <c r="A263" t="s">
         <v>380</v>
       </c>
@@ -13705,10 +13737,10 @@
         <v>254</v>
       </c>
       <c r="Q263" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" hidden="1">
       <c r="A264" t="s">
         <v>381</v>
       </c>
@@ -13752,16 +13784,16 @@
         <v>548</v>
       </c>
       <c r="O264" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P264">
         <v>1</v>
       </c>
       <c r="Q264" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" hidden="1">
       <c r="A265" t="s">
         <v>382</v>
       </c>
@@ -13799,10 +13831,10 @@
         <v>254</v>
       </c>
       <c r="Q265" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" hidden="1">
       <c r="A266" t="s">
         <v>383</v>
       </c>
@@ -13840,10 +13872,10 @@
         <v>254</v>
       </c>
       <c r="Q266" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" hidden="1">
       <c r="A267" t="s">
         <v>384</v>
       </c>
@@ -13869,7 +13901,7 @@
         <v>59</v>
       </c>
       <c r="I267" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J267">
         <v>6</v>
@@ -13884,7 +13916,7 @@
         <v>254</v>
       </c>
       <c r="Q267" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="268" spans="1:17">
@@ -13910,7 +13942,7 @@
         <v>243</v>
       </c>
       <c r="H268" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I268" t="s">
         <v>214</v>
@@ -13928,19 +13960,19 @@
         <v>254</v>
       </c>
       <c r="N268" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O268" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P268">
         <v>7</v>
       </c>
       <c r="Q268" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" hidden="1">
       <c r="A269" t="s">
         <v>386</v>
       </c>
@@ -13978,10 +14010,10 @@
         <v>254</v>
       </c>
       <c r="Q269" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="270" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" hidden="1">
       <c r="A270" t="s">
         <v>387</v>
       </c>
@@ -14022,7 +14054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" hidden="1">
       <c r="A271" t="s">
         <v>388</v>
       </c>
@@ -14048,7 +14080,7 @@
         <v>52</v>
       </c>
       <c r="I271" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J271">
         <v>7</v>
@@ -14066,7 +14098,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" hidden="1">
       <c r="A272" t="s">
         <v>389</v>
       </c>
@@ -14116,7 +14148,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" hidden="1">
       <c r="A273" t="s">
         <v>390</v>
       </c>
@@ -14157,7 +14189,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" hidden="1">
       <c r="A274" t="s">
         <v>391</v>
       </c>
@@ -14195,10 +14227,10 @@
         <v>254</v>
       </c>
       <c r="Q274" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="275" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" hidden="1">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -14224,7 +14256,7 @@
         <v>65</v>
       </c>
       <c r="I275" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J275">
         <v>8</v>
@@ -14239,7 +14271,7 @@
         <v>254</v>
       </c>
       <c r="Q275" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="276" spans="1:17">
@@ -14265,7 +14297,7 @@
         <v>243</v>
       </c>
       <c r="H276" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I276" t="s">
         <v>214</v>
@@ -14283,19 +14315,19 @@
         <v>254</v>
       </c>
       <c r="N276" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O276" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P276">
         <v>17</v>
       </c>
       <c r="Q276" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="277" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" hidden="1">
       <c r="A277" t="s">
         <v>394</v>
       </c>
@@ -14333,10 +14365,10 @@
         <v>254</v>
       </c>
       <c r="Q277" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="278" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" hidden="1">
       <c r="A278" t="s">
         <v>395</v>
       </c>
@@ -14368,7 +14400,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" hidden="1">
       <c r="A279" t="s">
         <v>396</v>
       </c>
@@ -14397,7 +14429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" hidden="1">
       <c r="A280" t="s">
         <v>399</v>
       </c>
@@ -14426,7 +14458,7 @@
         <v>45341.199467592596</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" hidden="1">
       <c r="A281" t="s">
         <v>400</v>
       </c>
@@ -14464,10 +14496,10 @@
         <v>254</v>
       </c>
       <c r="Q281" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="282" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" hidden="1">
       <c r="A282" t="s">
         <v>401</v>
       </c>
@@ -14505,10 +14537,10 @@
         <v>254</v>
       </c>
       <c r="Q282" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" hidden="1">
       <c r="A283" t="s">
         <v>402</v>
       </c>
@@ -14555,10 +14587,10 @@
         <v>1</v>
       </c>
       <c r="Q283" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="284" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" hidden="1">
       <c r="A284" t="s">
         <v>403</v>
       </c>
@@ -14596,10 +14628,10 @@
         <v>254</v>
       </c>
       <c r="Q284" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" hidden="1">
       <c r="A285" t="s">
         <v>404</v>
       </c>
@@ -14637,10 +14669,10 @@
         <v>254</v>
       </c>
       <c r="Q285" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="286" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" hidden="1">
       <c r="A286" t="s">
         <v>405</v>
       </c>
@@ -14678,10 +14710,10 @@
         <v>254</v>
       </c>
       <c r="Q286" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="287" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" hidden="1">
       <c r="A287" t="s">
         <v>406</v>
       </c>
@@ -14728,10 +14760,10 @@
         <v>1</v>
       </c>
       <c r="Q287" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="288" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" hidden="1">
       <c r="A288" t="s">
         <v>407</v>
       </c>
@@ -14769,10 +14801,10 @@
         <v>254</v>
       </c>
       <c r="Q288" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="289" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" hidden="1">
       <c r="A289" t="s">
         <v>408</v>
       </c>
@@ -14810,10 +14842,10 @@
         <v>254</v>
       </c>
       <c r="Q289" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="290" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" hidden="1">
       <c r="A290" t="s">
         <v>409</v>
       </c>
@@ -14851,10 +14883,10 @@
         <v>254</v>
       </c>
       <c r="Q290" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="291" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" hidden="1">
       <c r="A291" t="s">
         <v>410</v>
       </c>
@@ -14901,10 +14933,10 @@
         <v>1</v>
       </c>
       <c r="Q291" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="292" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" hidden="1">
       <c r="A292" t="s">
         <v>411</v>
       </c>
@@ -14942,10 +14974,10 @@
         <v>254</v>
       </c>
       <c r="Q292" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="293" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" hidden="1">
       <c r="A293" t="s">
         <v>412</v>
       </c>
@@ -14983,10 +15015,10 @@
         <v>254</v>
       </c>
       <c r="Q293" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="294" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" hidden="1">
       <c r="A294" t="s">
         <v>413</v>
       </c>
@@ -15024,7 +15056,7 @@
         <v>254</v>
       </c>
       <c r="Q294" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="295" spans="1:17">
@@ -15050,7 +15082,7 @@
         <v>246</v>
       </c>
       <c r="H295" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I295" t="s">
         <v>214</v>
@@ -15068,19 +15100,19 @@
         <v>254</v>
       </c>
       <c r="N295" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O295" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P295">
         <v>6</v>
       </c>
       <c r="Q295" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="296" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" hidden="1">
       <c r="A296" t="s">
         <v>415</v>
       </c>
@@ -15118,10 +15150,10 @@
         <v>254</v>
       </c>
       <c r="Q296" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" hidden="1">
       <c r="A297" t="s">
         <v>416</v>
       </c>
@@ -15159,10 +15191,10 @@
         <v>254</v>
       </c>
       <c r="Q297" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="298" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" hidden="1">
       <c r="A298" t="s">
         <v>417</v>
       </c>
@@ -15206,16 +15238,16 @@
         <v>548</v>
       </c>
       <c r="O298" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P298">
         <v>1</v>
       </c>
       <c r="Q298" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="299" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" hidden="1">
       <c r="A299" t="s">
         <v>418</v>
       </c>
@@ -15253,10 +15285,10 @@
         <v>254</v>
       </c>
       <c r="Q299" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="300" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" hidden="1">
       <c r="A300" t="s">
         <v>419</v>
       </c>
@@ -15294,10 +15326,10 @@
         <v>250</v>
       </c>
       <c r="Q300" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="301" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" hidden="1">
       <c r="A301" t="s">
         <v>420</v>
       </c>
@@ -15335,10 +15367,10 @@
         <v>250</v>
       </c>
       <c r="Q301" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="302" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" hidden="1">
       <c r="A302" t="s">
         <v>421</v>
       </c>
@@ -15361,7 +15393,7 @@
         <v>246</v>
       </c>
       <c r="H302" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I302" t="s">
         <v>236</v>
@@ -15379,10 +15411,10 @@
         <v>250</v>
       </c>
       <c r="Q302" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="303" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" hidden="1">
       <c r="A303" t="s">
         <v>422</v>
       </c>
@@ -15420,10 +15452,10 @@
         <v>250</v>
       </c>
       <c r="Q303" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="304" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" hidden="1">
       <c r="A304" t="s">
         <v>423</v>
       </c>
@@ -15464,7 +15496,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" hidden="1">
       <c r="A305" t="s">
         <v>424</v>
       </c>
@@ -15490,7 +15522,7 @@
         <v>52</v>
       </c>
       <c r="I305" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J305">
         <v>7</v>
@@ -15508,7 +15540,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" hidden="1">
       <c r="A306" t="s">
         <v>425</v>
       </c>
@@ -15558,7 +15590,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" hidden="1">
       <c r="A307" t="s">
         <v>426</v>
       </c>
@@ -15599,7 +15631,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" hidden="1">
       <c r="A308" t="s">
         <v>427</v>
       </c>
@@ -15637,10 +15669,10 @@
         <v>250</v>
       </c>
       <c r="Q308" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="309" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" hidden="1">
       <c r="A309" t="s">
         <v>428</v>
       </c>
@@ -15678,10 +15710,10 @@
         <v>250</v>
       </c>
       <c r="Q309" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="310" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" hidden="1">
       <c r="A310" t="s">
         <v>429</v>
       </c>
@@ -15704,7 +15736,7 @@
         <v>246</v>
       </c>
       <c r="H310" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I310" t="s">
         <v>236</v>
@@ -15722,10 +15754,10 @@
         <v>250</v>
       </c>
       <c r="Q310" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="311" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" hidden="1">
       <c r="A311" t="s">
         <v>430</v>
       </c>
@@ -15763,10 +15795,10 @@
         <v>250</v>
       </c>
       <c r="Q311" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="312" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" hidden="1">
       <c r="A312" t="s">
         <v>431</v>
       </c>
@@ -15798,7 +15830,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" hidden="1">
       <c r="A313" t="s">
         <v>432</v>
       </c>
@@ -15824,7 +15856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" hidden="1">
       <c r="A314" t="s">
         <v>436</v>
       </c>
@@ -15850,7 +15882,7 @@
         <v>45340.985659722224</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" hidden="1">
       <c r="A315" t="s">
         <v>437</v>
       </c>
@@ -15885,10 +15917,10 @@
         <v>732</v>
       </c>
       <c r="Q315" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="316" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" hidden="1">
       <c r="A316" t="s">
         <v>438</v>
       </c>
@@ -15923,10 +15955,10 @@
         <v>732</v>
       </c>
       <c r="Q316" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="317" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" hidden="1">
       <c r="A317" t="s">
         <v>439</v>
       </c>
@@ -15961,10 +15993,10 @@
         <v>732</v>
       </c>
       <c r="Q317" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="318" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" hidden="1">
       <c r="A318" t="s">
         <v>440</v>
       </c>
@@ -15999,10 +16031,10 @@
         <v>732</v>
       </c>
       <c r="Q318" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="319" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" hidden="1">
       <c r="A319" t="s">
         <v>441</v>
       </c>
@@ -16037,10 +16069,10 @@
         <v>254</v>
       </c>
       <c r="Q319" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="320" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" hidden="1">
       <c r="A320" t="s">
         <v>442</v>
       </c>
@@ -16075,10 +16107,10 @@
         <v>254</v>
       </c>
       <c r="Q320" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="321" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" hidden="1">
       <c r="A321" t="s">
         <v>443</v>
       </c>
@@ -16122,10 +16154,10 @@
         <v>1</v>
       </c>
       <c r="Q321" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="322" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" hidden="1">
       <c r="A322" t="s">
         <v>444</v>
       </c>
@@ -16160,10 +16192,10 @@
         <v>254</v>
       </c>
       <c r="Q322" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="323" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="323" spans="1:17" hidden="1">
       <c r="A323" t="s">
         <v>445</v>
       </c>
@@ -16198,10 +16230,10 @@
         <v>732</v>
       </c>
       <c r="Q323" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="324" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="324" spans="1:17" hidden="1">
       <c r="A324" t="s">
         <v>446</v>
       </c>
@@ -16236,10 +16268,10 @@
         <v>732</v>
       </c>
       <c r="Q324" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="325" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="325" spans="1:17" hidden="1">
       <c r="A325" t="s">
         <v>447</v>
       </c>
@@ -16274,10 +16306,10 @@
         <v>732</v>
       </c>
       <c r="Q325" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="326" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="326" spans="1:17" hidden="1">
       <c r="A326" t="s">
         <v>448</v>
       </c>
@@ -16312,10 +16344,10 @@
         <v>732</v>
       </c>
       <c r="Q326" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="327" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="327" spans="1:17" hidden="1">
       <c r="A327" t="s">
         <v>449</v>
       </c>
@@ -16350,10 +16382,10 @@
         <v>732</v>
       </c>
       <c r="Q327" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="328" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="328" spans="1:17" hidden="1">
       <c r="A328" t="s">
         <v>450</v>
       </c>
@@ -16388,10 +16420,10 @@
         <v>732</v>
       </c>
       <c r="Q328" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="329" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="329" spans="1:17" hidden="1">
       <c r="A329" t="s">
         <v>451</v>
       </c>
@@ -16411,7 +16443,7 @@
         <v>435</v>
       </c>
       <c r="H329" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J329">
         <v>4</v>
@@ -16426,10 +16458,10 @@
         <v>732</v>
       </c>
       <c r="Q329" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="330" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="330" spans="1:17" hidden="1">
       <c r="A330" t="s">
         <v>452</v>
       </c>
@@ -16464,10 +16496,10 @@
         <v>732</v>
       </c>
       <c r="Q330" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="331" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="331" spans="1:17" hidden="1">
       <c r="A331" t="s">
         <v>453</v>
       </c>
@@ -16502,10 +16534,10 @@
         <v>254</v>
       </c>
       <c r="Q331" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="332" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="332" spans="1:17" hidden="1">
       <c r="A332" t="s">
         <v>454</v>
       </c>
@@ -16546,16 +16578,16 @@
         <v>548</v>
       </c>
       <c r="O332" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P332">
         <v>1</v>
       </c>
       <c r="Q332" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="333" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="333" spans="1:17" hidden="1">
       <c r="A333" t="s">
         <v>455</v>
       </c>
@@ -16590,10 +16622,10 @@
         <v>254</v>
       </c>
       <c r="Q333" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="334" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="334" spans="1:17" hidden="1">
       <c r="A334" t="s">
         <v>456</v>
       </c>
@@ -16628,10 +16660,10 @@
         <v>732</v>
       </c>
       <c r="Q334" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="335" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="335" spans="1:17" hidden="1">
       <c r="A335" t="s">
         <v>457</v>
       </c>
@@ -16666,10 +16698,10 @@
         <v>732</v>
       </c>
       <c r="Q335" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="336" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="336" spans="1:17" hidden="1">
       <c r="A336" t="s">
         <v>458</v>
       </c>
@@ -16689,7 +16721,7 @@
         <v>435</v>
       </c>
       <c r="H336" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J336">
         <v>6</v>
@@ -16704,10 +16736,10 @@
         <v>732</v>
       </c>
       <c r="Q336" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="337" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" hidden="1">
       <c r="A337" t="s">
         <v>459</v>
       </c>
@@ -16742,10 +16774,10 @@
         <v>732</v>
       </c>
       <c r="Q337" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="338" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" hidden="1">
       <c r="A338" t="s">
         <v>460</v>
       </c>
@@ -16783,7 +16815,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" hidden="1">
       <c r="A339" t="s">
         <v>461</v>
       </c>
@@ -16821,7 +16853,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" hidden="1">
       <c r="A340" t="s">
         <v>462</v>
       </c>
@@ -16859,7 +16891,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" hidden="1">
       <c r="A341" t="s">
         <v>463</v>
       </c>
@@ -16897,7 +16929,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" hidden="1">
       <c r="A342" t="s">
         <v>464</v>
       </c>
@@ -16932,10 +16964,10 @@
         <v>732</v>
       </c>
       <c r="Q342" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="343" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="343" spans="1:17" hidden="1">
       <c r="A343" t="s">
         <v>465</v>
       </c>
@@ -16970,10 +17002,10 @@
         <v>732</v>
       </c>
       <c r="Q343" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="344" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17" hidden="1">
       <c r="A344" t="s">
         <v>466</v>
       </c>
@@ -16993,7 +17025,7 @@
         <v>435</v>
       </c>
       <c r="H344" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J344">
         <v>8</v>
@@ -17008,10 +17040,10 @@
         <v>732</v>
       </c>
       <c r="Q344" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="345" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" hidden="1">
       <c r="A345" t="s">
         <v>467</v>
       </c>
@@ -17046,10 +17078,10 @@
         <v>732</v>
       </c>
       <c r="Q345" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="346" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" hidden="1">
       <c r="A346" t="s">
         <v>468</v>
       </c>
@@ -17078,7 +17110,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" hidden="1">
       <c r="A347" t="s">
         <v>469</v>
       </c>
@@ -17104,7 +17136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" hidden="1">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -17130,7 +17162,7 @@
         <v>45340.949513888889</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" hidden="1">
       <c r="A349" t="s">
         <v>474</v>
       </c>
@@ -17165,10 +17197,10 @@
         <v>254</v>
       </c>
       <c r="Q349" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="350" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" hidden="1">
       <c r="A350" t="s">
         <v>475</v>
       </c>
@@ -17203,10 +17235,10 @@
         <v>254</v>
       </c>
       <c r="Q350" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="351" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" hidden="1">
       <c r="A351" t="s">
         <v>476</v>
       </c>
@@ -17250,10 +17282,10 @@
         <v>1</v>
       </c>
       <c r="Q351" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="352" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" hidden="1">
       <c r="A352" t="s">
         <v>477</v>
       </c>
@@ -17288,10 +17320,10 @@
         <v>254</v>
       </c>
       <c r="Q352" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="353" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="353" spans="1:17" hidden="1">
       <c r="A353" t="s">
         <v>478</v>
       </c>
@@ -17326,10 +17358,10 @@
         <v>254</v>
       </c>
       <c r="Q353" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="354" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="354" spans="1:17" hidden="1">
       <c r="A354" t="s">
         <v>479</v>
       </c>
@@ -17364,10 +17396,10 @@
         <v>254</v>
       </c>
       <c r="Q354" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="355" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="355" spans="1:17" hidden="1">
       <c r="A355" t="s">
         <v>480</v>
       </c>
@@ -17411,10 +17443,10 @@
         <v>1</v>
       </c>
       <c r="Q355" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="356" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="356" spans="1:17" hidden="1">
       <c r="A356" t="s">
         <v>481</v>
       </c>
@@ -17449,10 +17481,10 @@
         <v>254</v>
       </c>
       <c r="Q356" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="357" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="357" spans="1:17" hidden="1">
       <c r="A357" t="s">
         <v>482</v>
       </c>
@@ -17487,10 +17519,10 @@
         <v>254</v>
       </c>
       <c r="Q357" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="358" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="358" spans="1:17" hidden="1">
       <c r="A358" t="s">
         <v>483</v>
       </c>
@@ -17525,10 +17557,10 @@
         <v>254</v>
       </c>
       <c r="Q358" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="359" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="359" spans="1:17" hidden="1">
       <c r="A359" t="s">
         <v>484</v>
       </c>
@@ -17572,10 +17604,10 @@
         <v>1</v>
       </c>
       <c r="Q359" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="360" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="360" spans="1:17" hidden="1">
       <c r="A360" t="s">
         <v>485</v>
       </c>
@@ -17610,10 +17642,10 @@
         <v>254</v>
       </c>
       <c r="Q360" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="361" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="361" spans="1:17" hidden="1">
       <c r="A361" t="s">
         <v>486</v>
       </c>
@@ -17648,10 +17680,10 @@
         <v>254</v>
       </c>
       <c r="Q361" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="362" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="362" spans="1:17" hidden="1">
       <c r="A362" t="s">
         <v>487</v>
       </c>
@@ -17674,7 +17706,7 @@
         <v>45</v>
       </c>
       <c r="I362" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J362">
         <v>4</v>
@@ -17689,7 +17721,7 @@
         <v>254</v>
       </c>
       <c r="Q362" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="363" spans="1:17">
@@ -17712,7 +17744,7 @@
         <v>472</v>
       </c>
       <c r="H363" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I363" t="s">
         <v>214</v>
@@ -17730,19 +17762,19 @@
         <v>254</v>
       </c>
       <c r="N363" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O363" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P363">
         <v>6</v>
       </c>
       <c r="Q363" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="364" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="364" spans="1:17" hidden="1">
       <c r="A364" t="s">
         <v>489</v>
       </c>
@@ -17777,10 +17809,10 @@
         <v>254</v>
       </c>
       <c r="Q364" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="365" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="365" spans="1:17" hidden="1">
       <c r="A365" t="s">
         <v>490</v>
       </c>
@@ -17815,10 +17847,10 @@
         <v>732</v>
       </c>
       <c r="Q365" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="366" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="366" spans="1:17" hidden="1">
       <c r="A366" t="s">
         <v>491</v>
       </c>
@@ -17853,10 +17885,10 @@
         <v>732</v>
       </c>
       <c r="Q366" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="367" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="367" spans="1:17" hidden="1">
       <c r="A367" t="s">
         <v>492</v>
       </c>
@@ -17891,10 +17923,10 @@
         <v>732</v>
       </c>
       <c r="Q367" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="368" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="368" spans="1:17" hidden="1">
       <c r="A368" t="s">
         <v>493</v>
       </c>
@@ -17929,10 +17961,10 @@
         <v>254</v>
       </c>
       <c r="Q368" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="369" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="369" spans="1:17" hidden="1">
       <c r="A369" t="s">
         <v>494</v>
       </c>
@@ -17967,7 +17999,7 @@
         <v>254</v>
       </c>
       <c r="Q369" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="370" spans="1:17">
@@ -17990,7 +18022,7 @@
         <v>472</v>
       </c>
       <c r="H370" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I370" t="s">
         <v>214</v>
@@ -18008,19 +18040,19 @@
         <v>254</v>
       </c>
       <c r="N370" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O370" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P370">
         <v>7</v>
       </c>
       <c r="Q370" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="371" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="371" spans="1:17" hidden="1">
       <c r="A371" t="s">
         <v>496</v>
       </c>
@@ -18055,10 +18087,10 @@
         <v>254</v>
       </c>
       <c r="Q371" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="372" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="372" spans="1:17" hidden="1">
       <c r="A372" t="s">
         <v>497</v>
       </c>
@@ -18096,7 +18128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" hidden="1">
       <c r="A373" t="s">
         <v>498</v>
       </c>
@@ -18134,7 +18166,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" hidden="1">
       <c r="A374" t="s">
         <v>499</v>
       </c>
@@ -18175,7 +18207,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" hidden="1">
       <c r="A375" t="s">
         <v>500</v>
       </c>
@@ -18213,7 +18245,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" hidden="1">
       <c r="A376" t="s">
         <v>501</v>
       </c>
@@ -18248,10 +18280,10 @@
         <v>254</v>
       </c>
       <c r="Q376" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="377" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="377" spans="1:17" hidden="1">
       <c r="A377" t="s">
         <v>502</v>
       </c>
@@ -18286,7 +18318,7 @@
         <v>254</v>
       </c>
       <c r="Q377" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="378" spans="1:17">
@@ -18309,7 +18341,7 @@
         <v>472</v>
       </c>
       <c r="H378" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I378" t="s">
         <v>214</v>
@@ -18327,19 +18359,19 @@
         <v>254</v>
       </c>
       <c r="N378" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="O378" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P378">
         <v>17</v>
       </c>
       <c r="Q378" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="379" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="379" spans="1:17" hidden="1">
       <c r="A379" t="s">
         <v>504</v>
       </c>
@@ -18374,10 +18406,10 @@
         <v>254</v>
       </c>
       <c r="Q379" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="380" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="380" spans="1:17" hidden="1">
       <c r="A380" t="s">
         <v>505</v>
       </c>
@@ -18409,7 +18441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" hidden="1">
       <c r="A381" t="s">
         <v>507</v>
       </c>
@@ -18438,7 +18470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" hidden="1">
       <c r="A382" t="s">
         <v>510</v>
       </c>
@@ -18467,7 +18499,7 @@
         <v>45341.92863425926</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" hidden="1">
       <c r="A383" t="s">
         <v>511</v>
       </c>
@@ -18505,10 +18537,10 @@
         <v>250</v>
       </c>
       <c r="Q383" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="384" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="384" spans="1:17" hidden="1">
       <c r="A384" t="s">
         <v>512</v>
       </c>
@@ -18546,10 +18578,10 @@
         <v>250</v>
       </c>
       <c r="Q384" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="385" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="385" spans="1:17" hidden="1">
       <c r="A385" t="s">
         <v>513</v>
       </c>
@@ -18590,10 +18622,10 @@
         <v>250</v>
       </c>
       <c r="Q385" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="386" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" hidden="1">
       <c r="A386" t="s">
         <v>514</v>
       </c>
@@ -18631,10 +18663,10 @@
         <v>250</v>
       </c>
       <c r="Q386" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="387" spans="1:17">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="387" spans="1:17" hidden="1">
       <c r="A387" t="s">
         <v>515</v>
       </c>
@@ -18672,10 +18704,10 @@
         <v>250</v>
       </c>
       <c r="Q387" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="388" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="388" spans="1:17" hidden="1">
       <c r="A388" t="s">
         <v>516</v>
       </c>
@@ -18713,10 +18745,10 @@
         <v>250</v>
       </c>
       <c r="Q388" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="389" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" hidden="1">
       <c r="A389" t="s">
         <v>517</v>
       </c>
@@ -18757,10 +18789,10 @@
         <v>250</v>
       </c>
       <c r="Q389" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="390" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" hidden="1">
       <c r="A390" t="s">
         <v>518</v>
       </c>
@@ -18798,10 +18830,10 @@
         <v>250</v>
       </c>
       <c r="Q390" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="391" spans="1:17">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" hidden="1">
       <c r="A391" t="s">
         <v>519</v>
       </c>
@@ -18839,10 +18871,10 @@
         <v>254</v>
       </c>
       <c r="Q391" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="392" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" hidden="1">
       <c r="A392" t="s">
         <v>520</v>
       </c>
@@ -18880,10 +18912,10 @@
         <v>254</v>
       </c>
       <c r="Q392" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="393" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" hidden="1">
       <c r="A393" t="s">
         <v>521</v>
       </c>
@@ -18930,10 +18962,10 @@
         <v>1</v>
       </c>
       <c r="Q393" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="394" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="394" spans="1:17" hidden="1">
       <c r="A394" t="s">
         <v>522</v>
       </c>
@@ -18971,10 +19003,10 @@
         <v>254</v>
       </c>
       <c r="Q394" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="395" spans="1:17">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="395" spans="1:17" hidden="1">
       <c r="A395" t="s">
         <v>523</v>
       </c>
@@ -19012,10 +19044,10 @@
         <v>250</v>
       </c>
       <c r="Q395" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="396" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="396" spans="1:17" hidden="1">
       <c r="A396" t="s">
         <v>524</v>
       </c>
@@ -19053,10 +19085,10 @@
         <v>250</v>
       </c>
       <c r="Q396" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="397" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="397" spans="1:17" hidden="1">
       <c r="A397" t="s">
         <v>525</v>
       </c>
@@ -19079,7 +19111,7 @@
         <v>249</v>
       </c>
       <c r="H397" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I397" t="s">
         <v>236</v>
@@ -19097,10 +19129,10 @@
         <v>250</v>
       </c>
       <c r="Q397" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="398" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="398" spans="1:17" hidden="1">
       <c r="A398" t="s">
         <v>526</v>
       </c>
@@ -19138,10 +19170,10 @@
         <v>250</v>
       </c>
       <c r="Q398" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="399" spans="1:17">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="399" spans="1:17" hidden="1">
       <c r="A399" t="s">
         <v>527</v>
       </c>
@@ -19179,10 +19211,10 @@
         <v>250</v>
       </c>
       <c r="Q399" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="400" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="400" spans="1:17" hidden="1">
       <c r="A400" t="s">
         <v>528</v>
       </c>
@@ -19223,10 +19255,10 @@
         <v>250</v>
       </c>
       <c r="Q400" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="401" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="401" spans="1:17" hidden="1">
       <c r="A401" t="s">
         <v>529</v>
       </c>
@@ -19264,10 +19296,10 @@
         <v>250</v>
       </c>
       <c r="Q401" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="402" spans="1:17">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="402" spans="1:17" hidden="1">
       <c r="A402" t="s">
         <v>530</v>
       </c>
@@ -19305,10 +19337,10 @@
         <v>250</v>
       </c>
       <c r="Q402" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="403" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" hidden="1">
       <c r="A403" t="s">
         <v>531</v>
       </c>
@@ -19346,10 +19378,10 @@
         <v>250</v>
       </c>
       <c r="Q403" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="404" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" hidden="1">
       <c r="A404" t="s">
         <v>532</v>
       </c>
@@ -19372,7 +19404,7 @@
         <v>249</v>
       </c>
       <c r="H404" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I404" t="s">
         <v>236</v>
@@ -19390,10 +19422,10 @@
         <v>250</v>
       </c>
       <c r="Q404" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="405" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" hidden="1">
       <c r="A405" t="s">
         <v>533</v>
       </c>
@@ -19431,10 +19463,10 @@
         <v>250</v>
       </c>
       <c r="Q405" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="406" spans="1:17">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" hidden="1">
       <c r="A406" t="s">
         <v>534</v>
       </c>
@@ -19475,7 +19507,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" hidden="1">
       <c r="A407" t="s">
         <v>535</v>
       </c>
@@ -19516,7 +19548,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" hidden="1">
       <c r="A408" t="s">
         <v>536</v>
       </c>
@@ -19560,7 +19592,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" hidden="1">
       <c r="A409" t="s">
         <v>537</v>
       </c>
@@ -19601,7 +19633,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" hidden="1">
       <c r="A410" t="s">
         <v>538</v>
       </c>
@@ -19639,10 +19671,10 @@
         <v>250</v>
       </c>
       <c r="Q410" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="411" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="411" spans="1:17" hidden="1">
       <c r="A411" t="s">
         <v>539</v>
       </c>
@@ -19680,10 +19712,10 @@
         <v>250</v>
       </c>
       <c r="Q411" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="412" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" hidden="1">
       <c r="A412" t="s">
         <v>540</v>
       </c>
@@ -19706,7 +19738,7 @@
         <v>249</v>
       </c>
       <c r="H412" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I412" t="s">
         <v>236</v>
@@ -19724,10 +19756,10 @@
         <v>250</v>
       </c>
       <c r="Q412" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="413" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="413" spans="1:17" hidden="1">
       <c r="A413" t="s">
         <v>541</v>
       </c>
@@ -19765,10 +19797,10 @@
         <v>250</v>
       </c>
       <c r="Q413" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="414" spans="1:17">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" hidden="1">
       <c r="A414" t="s">
         <v>542</v>
       </c>
@@ -19800,7 +19832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" hidden="1">
       <c r="A415" t="s">
         <v>550</v>
       </c>
@@ -19829,7 +19861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" hidden="1">
       <c r="A416" t="s">
         <v>555</v>
       </c>
@@ -19858,7 +19890,7 @@
         <v>45331.782094907408</v>
       </c>
     </row>
-    <row r="417" spans="1:16">
+    <row r="417" spans="1:17" hidden="1">
       <c r="A417" t="s">
         <v>556</v>
       </c>
@@ -19898,8 +19930,11 @@
       <c r="M417" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="418" spans="1:16">
+      <c r="Q417" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="418" spans="1:17" hidden="1">
       <c r="A418" t="s">
         <v>557</v>
       </c>
@@ -19925,7 +19960,7 @@
         <v>23</v>
       </c>
       <c r="I418" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J418">
         <v>1</v>
@@ -19939,8 +19974,11 @@
       <c r="M418" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="419" spans="1:16">
+      <c r="Q418" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="419" spans="1:17" hidden="1">
       <c r="A419" t="s">
         <v>558</v>
       </c>
@@ -19963,10 +20001,10 @@
         <v>554</v>
       </c>
       <c r="H419" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I419" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J419">
         <v>1</v>
@@ -19984,13 +20022,16 @@
         <v>736</v>
       </c>
       <c r="O419" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P419">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:16">
+      <c r="Q419" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="420" spans="1:17" hidden="1">
       <c r="A420" t="s">
         <v>559</v>
       </c>
@@ -20027,8 +20068,11 @@
       <c r="M420" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="421" spans="1:16">
+      <c r="Q420" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="421" spans="1:17" hidden="1">
       <c r="A421" t="s">
         <v>561</v>
       </c>
@@ -20065,8 +20109,11 @@
       <c r="M421" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="422" spans="1:16">
+      <c r="Q421" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="422" spans="1:17" hidden="1">
       <c r="A422" t="s">
         <v>562</v>
       </c>
@@ -20092,7 +20139,7 @@
         <v>31</v>
       </c>
       <c r="I422" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J422">
         <v>2</v>
@@ -20106,8 +20153,11 @@
       <c r="M422" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="423" spans="1:16">
+      <c r="Q422" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="423" spans="1:17" hidden="1">
       <c r="A423" t="s">
         <v>563</v>
       </c>
@@ -20130,7 +20180,7 @@
         <v>554</v>
       </c>
       <c r="H423" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J423">
         <v>2</v>
@@ -20144,8 +20194,11 @@
       <c r="M423" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="424" spans="1:16">
+      <c r="Q423" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="424" spans="1:17" hidden="1">
       <c r="A424" t="s">
         <v>564</v>
       </c>
@@ -20168,7 +20221,7 @@
         <v>554</v>
       </c>
       <c r="H424" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="J424">
         <v>2</v>
@@ -20182,8 +20235,11 @@
       <c r="M424" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="425" spans="1:16">
+      <c r="Q424" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="425" spans="1:17" hidden="1">
       <c r="A425" t="s">
         <v>565</v>
       </c>
@@ -20220,8 +20276,11 @@
       <c r="M425" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="426" spans="1:16">
+      <c r="Q425" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="426" spans="1:17" hidden="1">
       <c r="A426" t="s">
         <v>567</v>
       </c>
@@ -20258,8 +20317,11 @@
       <c r="M426" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="427" spans="1:16">
+      <c r="Q426" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="427" spans="1:17" hidden="1">
       <c r="A427" t="s">
         <v>568</v>
       </c>
@@ -20285,7 +20347,7 @@
         <v>38</v>
       </c>
       <c r="I427" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J427">
         <v>3</v>
@@ -20299,8 +20361,11 @@
       <c r="M427" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="428" spans="1:16">
+      <c r="Q427" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="428" spans="1:17" hidden="1">
       <c r="A428" t="s">
         <v>569</v>
       </c>
@@ -20323,10 +20388,10 @@
         <v>554</v>
       </c>
       <c r="H428" t="s">
+        <v>747</v>
+      </c>
+      <c r="I428" t="s">
         <v>749</v>
-      </c>
-      <c r="I428" t="s">
-        <v>751</v>
       </c>
       <c r="J428">
         <v>3</v>
@@ -20344,13 +20409,16 @@
         <v>736</v>
       </c>
       <c r="O428" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P428">
         <v>2</v>
       </c>
-    </row>
-    <row r="429" spans="1:16">
+      <c r="Q428" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="429" spans="1:17" hidden="1">
       <c r="A429" t="s">
         <v>570</v>
       </c>
@@ -20387,8 +20455,11 @@
       <c r="M429" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="430" spans="1:16">
+      <c r="Q429" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="430" spans="1:17" hidden="1">
       <c r="A430" t="s">
         <v>572</v>
       </c>
@@ -20425,8 +20496,11 @@
       <c r="M430" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="431" spans="1:16">
+      <c r="Q430" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="431" spans="1:17" hidden="1">
       <c r="A431" t="s">
         <v>573</v>
       </c>
@@ -20452,7 +20526,7 @@
         <v>52</v>
       </c>
       <c r="I431" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J431">
         <v>4</v>
@@ -20466,8 +20540,11 @@
       <c r="M431" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="432" spans="1:16">
+      <c r="Q431" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="432" spans="1:17" hidden="1">
       <c r="A432" t="s">
         <v>574</v>
       </c>
@@ -20490,10 +20567,10 @@
         <v>554</v>
       </c>
       <c r="H432" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I432" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J432">
         <v>4</v>
@@ -20511,13 +20588,16 @@
         <v>736</v>
       </c>
       <c r="O432" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P432">
         <v>2</v>
       </c>
-    </row>
-    <row r="433" spans="1:16">
+      <c r="Q432" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" hidden="1">
       <c r="A433" t="s">
         <v>575</v>
       </c>
@@ -20554,8 +20634,11 @@
       <c r="M433" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="434" spans="1:16">
+      <c r="Q433" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" hidden="1">
       <c r="A434" t="s">
         <v>577</v>
       </c>
@@ -20592,8 +20675,11 @@
       <c r="M434" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="435" spans="1:16">
+      <c r="Q434" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" hidden="1">
       <c r="A435" t="s">
         <v>578</v>
       </c>
@@ -20619,7 +20705,7 @@
         <v>45</v>
       </c>
       <c r="I435" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J435">
         <v>5</v>
@@ -20633,8 +20719,11 @@
       <c r="M435" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="436" spans="1:16">
+      <c r="Q435" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" hidden="1">
       <c r="A436" t="s">
         <v>579</v>
       </c>
@@ -20657,7 +20746,7 @@
         <v>554</v>
       </c>
       <c r="H436" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J436">
         <v>5</v>
@@ -20671,8 +20760,11 @@
       <c r="M436" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="437" spans="1:16">
+      <c r="Q436" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" hidden="1">
       <c r="A437" t="s">
         <v>580</v>
       </c>
@@ -20709,8 +20801,11 @@
       <c r="M437" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="438" spans="1:16">
+      <c r="Q437" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" hidden="1">
       <c r="A438" t="s">
         <v>582</v>
       </c>
@@ -20747,8 +20842,11 @@
       <c r="M438" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="439" spans="1:16">
+      <c r="Q438" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" hidden="1">
       <c r="A439" t="s">
         <v>583</v>
       </c>
@@ -20785,8 +20883,11 @@
       <c r="M439" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="440" spans="1:16">
+      <c r="Q439" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" hidden="1">
       <c r="A440" t="s">
         <v>584</v>
       </c>
@@ -20809,7 +20910,7 @@
         <v>554</v>
       </c>
       <c r="H440" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I440" t="s">
         <v>214</v>
@@ -20827,16 +20928,19 @@
         <v>254</v>
       </c>
       <c r="N440" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O440" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P440">
         <v>24</v>
       </c>
-    </row>
-    <row r="441" spans="1:16">
+      <c r="Q440" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" hidden="1">
       <c r="A441" t="s">
         <v>585</v>
       </c>
@@ -20873,8 +20977,11 @@
       <c r="M441" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="442" spans="1:16">
+      <c r="Q441" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" hidden="1">
       <c r="A442" t="s">
         <v>587</v>
       </c>
@@ -20911,8 +21018,11 @@
       <c r="M442" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="443" spans="1:16">
+      <c r="Q442" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" hidden="1">
       <c r="A443" t="s">
         <v>588</v>
       </c>
@@ -20938,7 +21048,7 @@
         <v>65</v>
       </c>
       <c r="I443" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J443">
         <v>7</v>
@@ -20952,8 +21062,11 @@
       <c r="M443" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="444" spans="1:16">
+      <c r="Q443" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" hidden="1">
       <c r="A444" t="s">
         <v>589</v>
       </c>
@@ -20976,7 +21089,7 @@
         <v>554</v>
       </c>
       <c r="H444" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I444" t="s">
         <v>214</v>
@@ -20994,16 +21107,19 @@
         <v>254</v>
       </c>
       <c r="N444" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O444" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P444">
         <v>24</v>
       </c>
-    </row>
-    <row r="445" spans="1:16">
+      <c r="Q444" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" hidden="1">
       <c r="A445" t="s">
         <v>590</v>
       </c>
@@ -21040,8 +21156,11 @@
       <c r="M445" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="446" spans="1:16">
+      <c r="Q445" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="446" spans="1:17" hidden="1">
       <c r="A446" t="s">
         <v>591</v>
       </c>
@@ -21070,7 +21189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="447" spans="1:16">
+    <row r="447" spans="1:17" hidden="1">
       <c r="A447" t="s">
         <v>592</v>
       </c>
@@ -21099,7 +21218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="448" spans="1:16">
+    <row r="448" spans="1:17" hidden="1">
       <c r="A448" t="s">
         <v>594</v>
       </c>
@@ -21128,7 +21247,7 @@
         <v>45329.789398148147</v>
       </c>
     </row>
-    <row r="449" spans="1:16">
+    <row r="449" spans="1:17" hidden="1">
       <c r="A449" t="s">
         <v>595</v>
       </c>
@@ -21165,8 +21284,11 @@
       <c r="M449" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="450" spans="1:16">
+      <c r="Q449" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="450" spans="1:17" hidden="1">
       <c r="A450" t="s">
         <v>596</v>
       </c>
@@ -21203,8 +21325,11 @@
       <c r="M450" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="451" spans="1:16">
+      <c r="Q450" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="451" spans="1:17" hidden="1">
       <c r="A451" t="s">
         <v>597</v>
       </c>
@@ -21227,10 +21352,10 @@
         <v>326</v>
       </c>
       <c r="H451" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I451" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J451">
         <v>1</v>
@@ -21248,13 +21373,16 @@
         <v>736</v>
       </c>
       <c r="O451" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P451">
         <v>2</v>
       </c>
-    </row>
-    <row r="452" spans="1:16">
+      <c r="Q451" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="452" spans="1:17" hidden="1">
       <c r="A452" t="s">
         <v>598</v>
       </c>
@@ -21291,8 +21419,11 @@
       <c r="M452" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="453" spans="1:16">
+      <c r="Q452" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="453" spans="1:17" hidden="1">
       <c r="A453" t="s">
         <v>599</v>
       </c>
@@ -21329,8 +21460,11 @@
       <c r="M453" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="454" spans="1:16">
+      <c r="Q453" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="454" spans="1:17" hidden="1">
       <c r="A454" t="s">
         <v>600</v>
       </c>
@@ -21367,8 +21501,11 @@
       <c r="M454" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="455" spans="1:16">
+      <c r="Q454" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="455" spans="1:17" hidden="1">
       <c r="A455" t="s">
         <v>601</v>
       </c>
@@ -21391,10 +21528,10 @@
         <v>326</v>
       </c>
       <c r="H455" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I455" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J455">
         <v>2</v>
@@ -21412,13 +21549,16 @@
         <v>736</v>
       </c>
       <c r="O455" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q455" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="456" spans="1:17" hidden="1">
       <c r="A456" t="s">
         <v>602</v>
       </c>
@@ -21441,7 +21581,7 @@
         <v>326</v>
       </c>
       <c r="H456" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I456" t="s">
         <v>25</v>
@@ -21462,13 +21602,16 @@
         <v>735</v>
       </c>
       <c r="O456" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q456" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="457" spans="1:17" hidden="1">
       <c r="A457" t="s">
         <v>603</v>
       </c>
@@ -21505,8 +21648,11 @@
       <c r="M457" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="458" spans="1:16">
+      <c r="Q457" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="458" spans="1:17" hidden="1">
       <c r="A458" t="s">
         <v>604</v>
       </c>
@@ -21543,8 +21689,11 @@
       <c r="M458" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="459" spans="1:16">
+      <c r="Q458" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="459" spans="1:17" hidden="1">
       <c r="A459" t="s">
         <v>605</v>
       </c>
@@ -21581,8 +21730,11 @@
       <c r="M459" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="460" spans="1:16">
+      <c r="Q459" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="460" spans="1:17" hidden="1">
       <c r="A460" t="s">
         <v>606</v>
       </c>
@@ -21605,7 +21757,7 @@
         <v>326</v>
       </c>
       <c r="H460" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J460">
         <v>3</v>
@@ -21619,8 +21771,11 @@
       <c r="M460" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="461" spans="1:16">
+      <c r="Q460" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="461" spans="1:17" hidden="1">
       <c r="A461" t="s">
         <v>607</v>
       </c>
@@ -21657,8 +21812,11 @@
       <c r="M461" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="462" spans="1:16">
+      <c r="Q461" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="462" spans="1:17" hidden="1">
       <c r="A462" t="s">
         <v>608</v>
       </c>
@@ -21695,8 +21853,11 @@
       <c r="M462" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="463" spans="1:16">
+      <c r="Q462" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="463" spans="1:17" hidden="1">
       <c r="A463" t="s">
         <v>609</v>
       </c>
@@ -21733,8 +21894,11 @@
       <c r="M463" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="464" spans="1:16">
+      <c r="Q463" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="464" spans="1:17" hidden="1">
       <c r="A464" t="s">
         <v>610</v>
       </c>
@@ -21757,7 +21921,7 @@
         <v>326</v>
       </c>
       <c r="H464" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J464">
         <v>4</v>
@@ -21771,8 +21935,11 @@
       <c r="M464" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="465" spans="1:13">
+      <c r="Q464" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="465" spans="1:17" hidden="1">
       <c r="A465" t="s">
         <v>611</v>
       </c>
@@ -21809,8 +21976,11 @@
       <c r="M465" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="466" spans="1:13">
+      <c r="Q465" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="466" spans="1:17" hidden="1">
       <c r="A466" t="s">
         <v>612</v>
       </c>
@@ -21847,8 +22017,11 @@
       <c r="M466" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="467" spans="1:13">
+      <c r="Q466" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="467" spans="1:17" hidden="1">
       <c r="A467" t="s">
         <v>613</v>
       </c>
@@ -21885,8 +22058,11 @@
       <c r="M467" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="468" spans="1:13">
+      <c r="Q467" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="468" spans="1:17" hidden="1">
       <c r="A468" t="s">
         <v>614</v>
       </c>
@@ -21909,7 +22085,7 @@
         <v>326</v>
       </c>
       <c r="H468" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J468">
         <v>5</v>
@@ -21923,8 +22099,11 @@
       <c r="M468" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="469" spans="1:13">
+      <c r="Q468" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="469" spans="1:17" hidden="1">
       <c r="A469" t="s">
         <v>615</v>
       </c>
@@ -21961,8 +22140,11 @@
       <c r="M469" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="470" spans="1:13">
+      <c r="Q469" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17" hidden="1">
       <c r="A470" t="s">
         <v>616</v>
       </c>
@@ -21999,8 +22181,11 @@
       <c r="M470" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="471" spans="1:13">
+      <c r="Q470" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17" hidden="1">
       <c r="A471" t="s">
         <v>617</v>
       </c>
@@ -22037,8 +22222,11 @@
       <c r="M471" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="472" spans="1:13">
+      <c r="Q471" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17" hidden="1">
       <c r="A472" t="s">
         <v>618</v>
       </c>
@@ -22061,7 +22249,7 @@
         <v>326</v>
       </c>
       <c r="H472" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J472">
         <v>6</v>
@@ -22075,8 +22263,11 @@
       <c r="M472" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="473" spans="1:13">
+      <c r="Q472" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" hidden="1">
       <c r="A473" t="s">
         <v>619</v>
       </c>
@@ -22113,8 +22304,11 @@
       <c r="M473" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="474" spans="1:13">
+      <c r="Q473" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" hidden="1">
       <c r="A474" t="s">
         <v>620</v>
       </c>
@@ -22151,8 +22345,11 @@
       <c r="M474" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="475" spans="1:13">
+      <c r="Q474" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" hidden="1">
       <c r="A475" t="s">
         <v>621</v>
       </c>
@@ -22189,8 +22386,11 @@
       <c r="M475" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="476" spans="1:13">
+      <c r="Q475" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17" hidden="1">
       <c r="A476" t="s">
         <v>622</v>
       </c>
@@ -22213,7 +22413,7 @@
         <v>326</v>
       </c>
       <c r="H476" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J476">
         <v>7</v>
@@ -22227,8 +22427,11 @@
       <c r="M476" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="477" spans="1:13">
+      <c r="Q476" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17" hidden="1">
       <c r="A477" t="s">
         <v>623</v>
       </c>
@@ -22265,8 +22468,11 @@
       <c r="M477" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="478" spans="1:13">
+      <c r="Q477" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17" hidden="1">
       <c r="A478" t="s">
         <v>624</v>
       </c>
@@ -22295,7 +22501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:13">
+    <row r="479" spans="1:17" hidden="1">
       <c r="A479" t="s">
         <v>625</v>
       </c>
@@ -22324,7 +22530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:13">
+    <row r="480" spans="1:17" hidden="1">
       <c r="A480" t="s">
         <v>631</v>
       </c>
@@ -22353,7 +22559,7 @@
         <v>45329.817210648151</v>
       </c>
     </row>
-    <row r="481" spans="1:16">
+    <row r="481" spans="1:17" hidden="1">
       <c r="A481" t="s">
         <v>632</v>
       </c>
@@ -22393,8 +22599,11 @@
       <c r="M481" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="482" spans="1:16">
+      <c r="Q481" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="482" spans="1:17" hidden="1">
       <c r="A482" t="s">
         <v>633</v>
       </c>
@@ -22420,7 +22629,7 @@
         <v>23</v>
       </c>
       <c r="I482" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J482">
         <v>1</v>
@@ -22434,8 +22643,11 @@
       <c r="M482" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="483" spans="1:16">
+      <c r="Q482" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="483" spans="1:17" hidden="1">
       <c r="A483" t="s">
         <v>634</v>
       </c>
@@ -22458,10 +22670,10 @@
         <v>630</v>
       </c>
       <c r="H483" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I483" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J483">
         <v>1</v>
@@ -22479,13 +22691,16 @@
         <v>736</v>
       </c>
       <c r="O483" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P483">
         <v>2</v>
       </c>
-    </row>
-    <row r="484" spans="1:16">
+      <c r="Q483" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="484" spans="1:17" hidden="1">
       <c r="A484" t="s">
         <v>635</v>
       </c>
@@ -22522,8 +22737,11 @@
       <c r="M484" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="485" spans="1:16">
+      <c r="Q484" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="485" spans="1:17" hidden="1">
       <c r="A485" t="s">
         <v>636</v>
       </c>
@@ -22560,8 +22778,11 @@
       <c r="M485" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="486" spans="1:16">
+      <c r="Q485" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="486" spans="1:17" hidden="1">
       <c r="A486" t="s">
         <v>637</v>
       </c>
@@ -22598,8 +22819,11 @@
       <c r="M486" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="487" spans="1:16">
+      <c r="Q486" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="487" spans="1:17" hidden="1">
       <c r="A487" t="s">
         <v>638</v>
       </c>
@@ -22622,10 +22846,10 @@
         <v>630</v>
       </c>
       <c r="H487" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I487" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J487">
         <v>2</v>
@@ -22643,13 +22867,16 @@
         <v>736</v>
       </c>
       <c r="O487" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q487" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="488" spans="1:17" hidden="1">
       <c r="A488" t="s">
         <v>639</v>
       </c>
@@ -22672,7 +22899,7 @@
         <v>630</v>
       </c>
       <c r="H488" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I488" t="s">
         <v>25</v>
@@ -22693,13 +22920,16 @@
         <v>735</v>
       </c>
       <c r="O488" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P488">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q488" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="489" spans="1:17" hidden="1">
       <c r="A489" t="s">
         <v>640</v>
       </c>
@@ -22736,8 +22966,11 @@
       <c r="M489" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="490" spans="1:16">
+      <c r="Q489" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="490" spans="1:17" hidden="1">
       <c r="A490" t="s">
         <v>641</v>
       </c>
@@ -22774,8 +23007,11 @@
       <c r="M490" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="491" spans="1:16">
+      <c r="Q490" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="491" spans="1:17" hidden="1">
       <c r="A491" t="s">
         <v>642</v>
       </c>
@@ -22812,8 +23048,11 @@
       <c r="M491" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="492" spans="1:16">
+      <c r="Q491" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="492" spans="1:17" hidden="1">
       <c r="A492" t="s">
         <v>643</v>
       </c>
@@ -22836,10 +23075,10 @@
         <v>630</v>
       </c>
       <c r="H492" t="s">
+        <v>747</v>
+      </c>
+      <c r="I492" t="s">
         <v>749</v>
-      </c>
-      <c r="I492" t="s">
-        <v>751</v>
       </c>
       <c r="J492">
         <v>3</v>
@@ -22857,13 +23096,16 @@
         <v>736</v>
       </c>
       <c r="O492" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P492">
         <v>2</v>
       </c>
-    </row>
-    <row r="493" spans="1:16">
+      <c r="Q492" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="493" spans="1:17" hidden="1">
       <c r="A493" t="s">
         <v>644</v>
       </c>
@@ -22900,8 +23142,11 @@
       <c r="M493" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="494" spans="1:16">
+      <c r="Q493" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="494" spans="1:17" hidden="1">
       <c r="A494" t="s">
         <v>645</v>
       </c>
@@ -22938,8 +23183,11 @@
       <c r="M494" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="495" spans="1:16">
+      <c r="Q494" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="495" spans="1:17" hidden="1">
       <c r="A495" t="s">
         <v>646</v>
       </c>
@@ -22976,8 +23224,11 @@
       <c r="M495" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="496" spans="1:16">
+      <c r="Q495" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="496" spans="1:17" hidden="1">
       <c r="A496" t="s">
         <v>647</v>
       </c>
@@ -23000,10 +23251,10 @@
         <v>630</v>
       </c>
       <c r="H496" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I496" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J496">
         <v>4</v>
@@ -23021,13 +23272,16 @@
         <v>736</v>
       </c>
       <c r="O496" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P496">
         <v>2</v>
       </c>
-    </row>
-    <row r="497" spans="1:16">
+      <c r="Q496" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="497" spans="1:17" hidden="1">
       <c r="A497" t="s">
         <v>648</v>
       </c>
@@ -23064,8 +23318,11 @@
       <c r="M497" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="498" spans="1:16">
+      <c r="Q497" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="498" spans="1:17" hidden="1">
       <c r="A498" t="s">
         <v>649</v>
       </c>
@@ -23102,8 +23359,11 @@
       <c r="M498" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="499" spans="1:16">
+      <c r="Q498" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="499" spans="1:17" hidden="1">
       <c r="A499" t="s">
         <v>650</v>
       </c>
@@ -23129,7 +23389,7 @@
         <v>45</v>
       </c>
       <c r="I499" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J499">
         <v>5</v>
@@ -23143,8 +23403,11 @@
       <c r="M499" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="500" spans="1:16">
+      <c r="Q499" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="500" spans="1:17" hidden="1">
       <c r="A500" t="s">
         <v>651</v>
       </c>
@@ -23167,7 +23430,7 @@
         <v>630</v>
       </c>
       <c r="H500" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I500" t="s">
         <v>214</v>
@@ -23185,16 +23448,19 @@
         <v>254</v>
       </c>
       <c r="N500" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O500" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P500">
         <v>24</v>
       </c>
-    </row>
-    <row r="501" spans="1:16">
+      <c r="Q500" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="501" spans="1:17" hidden="1">
       <c r="A501" t="s">
         <v>652</v>
       </c>
@@ -23231,8 +23497,11 @@
       <c r="M501" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="502" spans="1:16">
+      <c r="Q501" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="502" spans="1:17" hidden="1">
       <c r="A502" t="s">
         <v>653</v>
       </c>
@@ -23269,8 +23538,11 @@
       <c r="M502" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="503" spans="1:16">
+      <c r="Q502" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="503" spans="1:17" hidden="1">
       <c r="A503" t="s">
         <v>654</v>
       </c>
@@ -23307,8 +23579,11 @@
       <c r="M503" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="504" spans="1:16">
+      <c r="Q503" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="504" spans="1:17" hidden="1">
       <c r="A504" t="s">
         <v>655</v>
       </c>
@@ -23331,7 +23606,7 @@
         <v>630</v>
       </c>
       <c r="H504" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I504" t="s">
         <v>214</v>
@@ -23349,16 +23624,19 @@
         <v>254</v>
       </c>
       <c r="N504" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O504" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P504">
         <v>24</v>
       </c>
-    </row>
-    <row r="505" spans="1:16">
+      <c r="Q504" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="505" spans="1:17" hidden="1">
       <c r="A505" t="s">
         <v>656</v>
       </c>
@@ -23395,8 +23673,11 @@
       <c r="M505" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="506" spans="1:16">
+      <c r="Q505" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="506" spans="1:17" hidden="1">
       <c r="A506" t="s">
         <v>657</v>
       </c>
@@ -23433,8 +23714,11 @@
       <c r="M506" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="507" spans="1:16">
+      <c r="Q506" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="507" spans="1:17" hidden="1">
       <c r="A507" t="s">
         <v>658</v>
       </c>
@@ -23471,8 +23755,11 @@
       <c r="M507" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="508" spans="1:16">
+      <c r="Q507" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="508" spans="1:17" hidden="1">
       <c r="A508" t="s">
         <v>659</v>
       </c>
@@ -23495,7 +23782,7 @@
         <v>630</v>
       </c>
       <c r="H508" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I508" t="s">
         <v>214</v>
@@ -23513,16 +23800,19 @@
         <v>254</v>
       </c>
       <c r="N508" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O508" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P508">
         <v>24</v>
       </c>
-    </row>
-    <row r="509" spans="1:16">
+      <c r="Q508" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="509" spans="1:17" hidden="1">
       <c r="A509" t="s">
         <v>660</v>
       </c>
@@ -23559,8 +23849,11 @@
       <c r="M509" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="510" spans="1:16">
+      <c r="Q509" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="510" spans="1:17" hidden="1">
       <c r="A510" t="s">
         <v>661</v>
       </c>
@@ -23589,7 +23882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:16">
+    <row r="511" spans="1:17" hidden="1">
       <c r="A511" t="s">
         <v>662</v>
       </c>
@@ -23618,7 +23911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:16">
+    <row r="512" spans="1:17" hidden="1">
       <c r="A512" t="s">
         <v>665</v>
       </c>
@@ -23647,7 +23940,7 @@
         <v>45334.777581018519</v>
       </c>
     </row>
-    <row r="513" spans="1:16">
+    <row r="513" spans="1:17" hidden="1">
       <c r="A513" t="s">
         <v>666</v>
       </c>
@@ -23684,8 +23977,11 @@
       <c r="M513" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="514" spans="1:16">
+      <c r="Q513" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="514" spans="1:17" hidden="1">
       <c r="A514" t="s">
         <v>667</v>
       </c>
@@ -23711,7 +24007,7 @@
         <v>23</v>
       </c>
       <c r="I514" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J514">
         <v>1</v>
@@ -23725,8 +24021,11 @@
       <c r="M514" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="515" spans="1:16">
+      <c r="Q514" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="515" spans="1:17" hidden="1">
       <c r="A515" t="s">
         <v>668</v>
       </c>
@@ -23749,10 +24048,10 @@
         <v>664</v>
       </c>
       <c r="H515" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I515" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J515">
         <v>1</v>
@@ -23770,13 +24069,16 @@
         <v>736</v>
       </c>
       <c r="O515" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P515">
         <v>2</v>
       </c>
-    </row>
-    <row r="516" spans="1:16">
+      <c r="Q515" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="516" spans="1:17" hidden="1">
       <c r="A516" t="s">
         <v>669</v>
       </c>
@@ -23813,8 +24115,11 @@
       <c r="M516" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="517" spans="1:16">
+      <c r="Q516" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="517" spans="1:17" hidden="1">
       <c r="A517" t="s">
         <v>670</v>
       </c>
@@ -23851,8 +24156,11 @@
       <c r="M517" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="518" spans="1:16">
+      <c r="Q517" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="518" spans="1:17" hidden="1">
       <c r="A518" t="s">
         <v>671</v>
       </c>
@@ -23878,7 +24186,7 @@
         <v>31</v>
       </c>
       <c r="I518" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J518">
         <v>2</v>
@@ -23892,8 +24200,11 @@
       <c r="M518" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="519" spans="1:16">
+      <c r="Q518" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="519" spans="1:17" hidden="1">
       <c r="A519" t="s">
         <v>672</v>
       </c>
@@ -23916,10 +24227,10 @@
         <v>664</v>
       </c>
       <c r="H519" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I519" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J519">
         <v>2</v>
@@ -23937,13 +24248,16 @@
         <v>736</v>
       </c>
       <c r="O519" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P519">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="520" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q519" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="520" spans="1:17" hidden="1">
       <c r="A520" t="s">
         <v>673</v>
       </c>
@@ -23966,7 +24280,7 @@
         <v>664</v>
       </c>
       <c r="H520" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I520" t="s">
         <v>25</v>
@@ -23987,13 +24301,16 @@
         <v>735</v>
       </c>
       <c r="O520" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P520">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="521" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q520" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="521" spans="1:17" hidden="1">
       <c r="A521" t="s">
         <v>674</v>
       </c>
@@ -24030,8 +24347,11 @@
       <c r="M521" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="522" spans="1:16">
+      <c r="Q521" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="522" spans="1:17" hidden="1">
       <c r="A522" t="s">
         <v>675</v>
       </c>
@@ -24068,8 +24388,11 @@
       <c r="M522" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="523" spans="1:16">
+      <c r="Q522" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="523" spans="1:17" hidden="1">
       <c r="A523" t="s">
         <v>676</v>
       </c>
@@ -24095,7 +24418,7 @@
         <v>38</v>
       </c>
       <c r="I523" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J523">
         <v>3</v>
@@ -24109,8 +24432,11 @@
       <c r="M523" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="524" spans="1:16">
+      <c r="Q523" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="524" spans="1:17" hidden="1">
       <c r="A524" t="s">
         <v>677</v>
       </c>
@@ -24133,10 +24459,10 @@
         <v>664</v>
       </c>
       <c r="H524" t="s">
+        <v>747</v>
+      </c>
+      <c r="I524" t="s">
         <v>749</v>
-      </c>
-      <c r="I524" t="s">
-        <v>751</v>
       </c>
       <c r="J524">
         <v>3</v>
@@ -24154,13 +24480,16 @@
         <v>736</v>
       </c>
       <c r="O524" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P524">
         <v>2</v>
       </c>
-    </row>
-    <row r="525" spans="1:16">
+      <c r="Q524" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="525" spans="1:17" hidden="1">
       <c r="A525" t="s">
         <v>678</v>
       </c>
@@ -24197,8 +24526,11 @@
       <c r="M525" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="526" spans="1:16">
+      <c r="Q525" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="526" spans="1:17" hidden="1">
       <c r="A526" t="s">
         <v>679</v>
       </c>
@@ -24235,8 +24567,11 @@
       <c r="M526" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="527" spans="1:16">
+      <c r="Q526" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="527" spans="1:17" hidden="1">
       <c r="A527" t="s">
         <v>680</v>
       </c>
@@ -24262,7 +24597,7 @@
         <v>52</v>
       </c>
       <c r="I527" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J527">
         <v>4</v>
@@ -24276,8 +24611,11 @@
       <c r="M527" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="528" spans="1:16">
+      <c r="Q527" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="528" spans="1:17" hidden="1">
       <c r="A528" t="s">
         <v>681</v>
       </c>
@@ -24300,10 +24638,10 @@
         <v>664</v>
       </c>
       <c r="H528" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I528" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J528">
         <v>4</v>
@@ -24321,13 +24659,16 @@
         <v>736</v>
       </c>
       <c r="O528" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P528">
         <v>2</v>
       </c>
-    </row>
-    <row r="529" spans="1:16">
+      <c r="Q528" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="529" spans="1:17" hidden="1">
       <c r="A529" t="s">
         <v>682</v>
       </c>
@@ -24364,8 +24705,11 @@
       <c r="M529" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="530" spans="1:16">
+      <c r="Q529" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="530" spans="1:17" hidden="1">
       <c r="A530" t="s">
         <v>683</v>
       </c>
@@ -24402,8 +24746,11 @@
       <c r="M530" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="531" spans="1:16">
+      <c r="Q530" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="531" spans="1:17" hidden="1">
       <c r="A531" t="s">
         <v>684</v>
       </c>
@@ -24429,7 +24776,7 @@
         <v>45</v>
       </c>
       <c r="I531" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J531">
         <v>5</v>
@@ -24443,8 +24790,11 @@
       <c r="M531" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="532" spans="1:16">
+      <c r="Q531" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="532" spans="1:17" hidden="1">
       <c r="A532" t="s">
         <v>685</v>
       </c>
@@ -24467,7 +24817,7 @@
         <v>664</v>
       </c>
       <c r="H532" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I532" t="s">
         <v>214</v>
@@ -24485,16 +24835,19 @@
         <v>254</v>
       </c>
       <c r="N532" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O532" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P532">
         <v>24</v>
       </c>
-    </row>
-    <row r="533" spans="1:16">
+      <c r="Q532" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="533" spans="1:17" hidden="1">
       <c r="A533" t="s">
         <v>686</v>
       </c>
@@ -24531,8 +24884,11 @@
       <c r="M533" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="534" spans="1:16">
+      <c r="Q533" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="534" spans="1:17" hidden="1">
       <c r="A534" t="s">
         <v>687</v>
       </c>
@@ -24569,8 +24925,11 @@
       <c r="M534" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="535" spans="1:16">
+      <c r="Q534" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="535" spans="1:17" hidden="1">
       <c r="A535" t="s">
         <v>688</v>
       </c>
@@ -24607,8 +24966,11 @@
       <c r="M535" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="536" spans="1:16">
+      <c r="Q535" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="536" spans="1:17" hidden="1">
       <c r="A536" t="s">
         <v>689</v>
       </c>
@@ -24631,7 +24993,7 @@
         <v>664</v>
       </c>
       <c r="H536" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I536" t="s">
         <v>214</v>
@@ -24649,16 +25011,19 @@
         <v>254</v>
       </c>
       <c r="N536" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O536" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P536">
         <v>24</v>
       </c>
-    </row>
-    <row r="537" spans="1:16">
+      <c r="Q536" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="537" spans="1:17" hidden="1">
       <c r="A537" t="s">
         <v>690</v>
       </c>
@@ -24695,8 +25060,11 @@
       <c r="M537" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="538" spans="1:16">
+      <c r="Q537" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="538" spans="1:17" hidden="1">
       <c r="A538" t="s">
         <v>691</v>
       </c>
@@ -24733,8 +25101,11 @@
       <c r="M538" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="539" spans="1:16">
+      <c r="Q538" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="539" spans="1:17" hidden="1">
       <c r="A539" t="s">
         <v>692</v>
       </c>
@@ -24760,7 +25131,7 @@
         <v>65</v>
       </c>
       <c r="I539" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J539">
         <v>7</v>
@@ -24774,8 +25145,11 @@
       <c r="M539" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="540" spans="1:16">
+      <c r="Q539" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="540" spans="1:17" hidden="1">
       <c r="A540" t="s">
         <v>693</v>
       </c>
@@ -24798,7 +25172,7 @@
         <v>664</v>
       </c>
       <c r="H540" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I540" t="s">
         <v>214</v>
@@ -24816,16 +25190,19 @@
         <v>254</v>
       </c>
       <c r="N540" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="O540" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P540">
         <v>24</v>
       </c>
-    </row>
-    <row r="541" spans="1:16">
+      <c r="Q540" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="541" spans="1:17" hidden="1">
       <c r="A541" t="s">
         <v>694</v>
       </c>
@@ -24862,8 +25239,11 @@
       <c r="M541" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="542" spans="1:16">
+      <c r="Q541" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="542" spans="1:17" hidden="1">
       <c r="A542" t="s">
         <v>695</v>
       </c>
@@ -24892,7 +25272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:16">
+    <row r="543" spans="1:17" hidden="1">
       <c r="A543" t="s">
         <v>696</v>
       </c>
@@ -24921,7 +25301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:16">
+    <row r="544" spans="1:17" hidden="1">
       <c r="A544" t="s">
         <v>700</v>
       </c>
@@ -24950,7 +25330,7 @@
         <v>45329.961354166669</v>
       </c>
     </row>
-    <row r="545" spans="1:16">
+    <row r="545" spans="1:17" hidden="1">
       <c r="A545" t="s">
         <v>701</v>
       </c>
@@ -24987,8 +25367,11 @@
       <c r="M545" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="546" spans="1:16">
+      <c r="Q545" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" hidden="1">
       <c r="A546" t="s">
         <v>702</v>
       </c>
@@ -25014,7 +25397,7 @@
         <v>23</v>
       </c>
       <c r="I546" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J546">
         <v>1</v>
@@ -25028,8 +25411,11 @@
       <c r="M546" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="547" spans="1:16">
+      <c r="Q546" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" hidden="1">
       <c r="A547" t="s">
         <v>703</v>
       </c>
@@ -25052,10 +25438,10 @@
         <v>699</v>
       </c>
       <c r="H547" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I547" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J547">
         <v>1</v>
@@ -25073,13 +25459,16 @@
         <v>736</v>
       </c>
       <c r="O547" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P547">
         <v>2</v>
       </c>
-    </row>
-    <row r="548" spans="1:16">
+      <c r="Q547" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" hidden="1">
       <c r="A548" t="s">
         <v>704</v>
       </c>
@@ -25116,8 +25505,11 @@
       <c r="M548" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="549" spans="1:16">
+      <c r="Q548" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" hidden="1">
       <c r="A549" t="s">
         <v>705</v>
       </c>
@@ -25154,8 +25546,11 @@
       <c r="M549" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="550" spans="1:16">
+      <c r="Q549" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" hidden="1">
       <c r="A550" t="s">
         <v>706</v>
       </c>
@@ -25181,7 +25576,7 @@
         <v>31</v>
       </c>
       <c r="I550" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J550">
         <v>2</v>
@@ -25195,8 +25590,11 @@
       <c r="M550" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="551" spans="1:16">
+      <c r="Q550" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" ht="15" hidden="1" customHeight="1">
       <c r="A551" t="s">
         <v>707</v>
       </c>
@@ -25219,10 +25617,10 @@
         <v>699</v>
       </c>
       <c r="H551" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I551" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J551">
         <v>2</v>
@@ -25240,13 +25638,16 @@
         <v>736</v>
       </c>
       <c r="O551" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P551">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="552" spans="1:16">
+        <v>2</v>
+      </c>
+      <c r="Q551" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" hidden="1">
       <c r="A552" t="s">
         <v>708</v>
       </c>
@@ -25269,7 +25670,7 @@
         <v>699</v>
       </c>
       <c r="H552" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I552" t="s">
         <v>25</v>
@@ -25290,13 +25691,16 @@
         <v>735</v>
       </c>
       <c r="O552" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P552">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="553" spans="1:16">
+        <v>1</v>
+      </c>
+      <c r="Q552" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" hidden="1">
       <c r="A553" t="s">
         <v>709</v>
       </c>
@@ -25333,8 +25737,11 @@
       <c r="M553" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="554" spans="1:16">
+      <c r="Q553" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" hidden="1">
       <c r="A554" t="s">
         <v>710</v>
       </c>
@@ -25371,8 +25778,11 @@
       <c r="M554" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="555" spans="1:16">
+      <c r="Q554" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" hidden="1">
       <c r="A555" t="s">
         <v>711</v>
       </c>
@@ -25398,7 +25808,7 @@
         <v>38</v>
       </c>
       <c r="I555" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J555">
         <v>3</v>
@@ -25412,8 +25822,11 @@
       <c r="M555" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="556" spans="1:16">
+      <c r="Q555" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" hidden="1">
       <c r="A556" t="s">
         <v>712</v>
       </c>
@@ -25436,10 +25849,10 @@
         <v>699</v>
       </c>
       <c r="H556" t="s">
+        <v>747</v>
+      </c>
+      <c r="I556" t="s">
         <v>749</v>
-      </c>
-      <c r="I556" t="s">
-        <v>751</v>
       </c>
       <c r="J556">
         <v>3</v>
@@ -25457,13 +25870,16 @@
         <v>736</v>
       </c>
       <c r="O556" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P556">
         <v>2</v>
       </c>
-    </row>
-    <row r="557" spans="1:16">
+      <c r="Q556" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" hidden="1">
       <c r="A557" t="s">
         <v>713</v>
       </c>
@@ -25500,8 +25916,11 @@
       <c r="M557" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="558" spans="1:16">
+      <c r="Q557" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" hidden="1">
       <c r="A558" t="s">
         <v>714</v>
       </c>
@@ -25538,8 +25957,11 @@
       <c r="M558" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="559" spans="1:16">
+      <c r="Q558" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" hidden="1">
       <c r="A559" t="s">
         <v>715</v>
       </c>
@@ -25565,7 +25987,7 @@
         <v>52</v>
       </c>
       <c r="I559" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="J559">
         <v>4</v>
@@ -25579,8 +26001,11 @@
       <c r="M559" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="560" spans="1:16">
+      <c r="Q559" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" hidden="1">
       <c r="A560" t="s">
         <v>716</v>
       </c>
@@ -25603,10 +26028,10 @@
         <v>699</v>
       </c>
       <c r="H560" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I560" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J560">
         <v>4</v>
@@ -25624,13 +26049,16 @@
         <v>736</v>
       </c>
       <c r="O560" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P560">
         <v>2</v>
       </c>
-    </row>
-    <row r="561" spans="1:13">
+      <c r="Q560" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" hidden="1">
       <c r="A561" t="s">
         <v>717</v>
       </c>
@@ -25667,8 +26095,11 @@
       <c r="M561" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="562" spans="1:13">
+      <c r="Q561" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" hidden="1">
       <c r="A562" t="s">
         <v>718</v>
       </c>
@@ -25708,8 +26139,11 @@
       <c r="M562" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="563" spans="1:13">
+      <c r="Q562" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" hidden="1">
       <c r="A563" t="s">
         <v>719</v>
       </c>
@@ -25735,7 +26169,7 @@
         <v>45</v>
       </c>
       <c r="I563" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="J563">
         <v>5</v>
@@ -25749,8 +26183,11 @@
       <c r="M563" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="564" spans="1:13">
+      <c r="Q563" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" hidden="1">
       <c r="A564" t="s">
         <v>720</v>
       </c>
@@ -25773,7 +26210,7 @@
         <v>699</v>
       </c>
       <c r="H564" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="J564">
         <v>5</v>
@@ -25787,8 +26224,11 @@
       <c r="M564" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="565" spans="1:13">
+      <c r="Q564" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" hidden="1">
       <c r="A565" t="s">
         <v>721</v>
       </c>
@@ -25825,8 +26265,11 @@
       <c r="M565" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="566" spans="1:13">
+      <c r="Q565" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" hidden="1">
       <c r="A566" t="s">
         <v>722</v>
       </c>
@@ -25863,8 +26306,11 @@
       <c r="M566" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="567" spans="1:13">
+      <c r="Q566" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" hidden="1">
       <c r="A567" t="s">
         <v>723</v>
       </c>
@@ -25901,8 +26347,11 @@
       <c r="M567" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="568" spans="1:13">
+      <c r="Q567" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" hidden="1">
       <c r="A568" t="s">
         <v>724</v>
       </c>
@@ -25925,7 +26374,7 @@
         <v>699</v>
       </c>
       <c r="H568" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="J568">
         <v>6</v>
@@ -25939,8 +26388,11 @@
       <c r="M568" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="569" spans="1:13">
+      <c r="Q568" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" hidden="1">
       <c r="A569" t="s">
         <v>725</v>
       </c>
@@ -25977,8 +26429,11 @@
       <c r="M569" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="570" spans="1:13">
+      <c r="Q569" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" hidden="1">
       <c r="A570" t="s">
         <v>726</v>
       </c>
@@ -26015,8 +26470,11 @@
       <c r="M570" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="571" spans="1:13">
+      <c r="Q570" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" hidden="1">
       <c r="A571" t="s">
         <v>727</v>
       </c>
@@ -26053,8 +26511,11 @@
       <c r="M571" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="572" spans="1:13">
+      <c r="Q571" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" hidden="1">
       <c r="A572" t="s">
         <v>728</v>
       </c>
@@ -26077,7 +26538,7 @@
         <v>699</v>
       </c>
       <c r="H572" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J572">
         <v>7</v>
@@ -26091,8 +26552,11 @@
       <c r="M572" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="573" spans="1:13">
+      <c r="Q572" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" hidden="1">
       <c r="A573" t="s">
         <v>729</v>
       </c>
@@ -26129,8 +26593,11 @@
       <c r="M573" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="574" spans="1:13">
+      <c r="Q573" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="574" spans="1:17" hidden="1">
       <c r="A574" t="s">
         <v>730</v>
       </c>
@@ -26160,7 +26627,56 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S574" xr:uid="{56578F5E-9E9C-418F-9B62-D825A2C80324}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Email specific legislators"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343516A-F98C-4ECA-BFC7-52AA44056775}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>